--- a/Dataset/maintenance type and expression way.xlsx
+++ b/Dataset/maintenance type and expression way.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="399" documentId="14_{FF87C3E5-B3D9-473F-8942-3D2A5BD95DFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{638779DD-655C-435B-AAE6-CDECD84E4C56}"/>
+  <xr:revisionPtr revIDLastSave="403" documentId="14_{FF87C3E5-B3D9-473F-8942-3D2A5BD95DFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{EF7496A4-167C-4108-88A4-773D566D6FEB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="6" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="1579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="1577">
   <si>
     <t>https://github.com/square/retrofit/commit/f939189f3b825beb66a499686b9f6ca0f3a70cc1</t>
   </si>
@@ -2812,9 +2812,6 @@
   <si>
     <t>Illustrate function</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Omit</t>
   </si>
   <si>
     <t>Describe issue</t>
@@ -3684,9 +3681,6 @@
   <si>
     <t>Describe the code object of code change</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Describe implementation rationale</t>
   </si>
   <si>
     <t xml:space="preserve"> This tracks a similar change in Chromium 56</t>
@@ -5040,10 +5034,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Describe implementation rationale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Describe the Implemantation rationale</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5622,10 +5612,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Describe implementation rationale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Illustrate function &amp; Summarize code change</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5739,6 +5725,14 @@
   <si>
     <t>Related to addepted changes: improve its test process</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missing What</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Describe implementation principle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11512,7 +11506,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3572486C-900B-495B-BA98-CBFD89E5C851}" name="数据透视表1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3572486C-900B-495B-BA98-CBFD89E5C851}" name="数据透视表1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D9:H19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -11941,7 +11935,7 @@
   <dimension ref="A1:J272"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11960,16 +11954,16 @@
   <sheetData>
     <row r="1" spans="1:10" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1344</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1346</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>421</v>
@@ -11992,31 +11986,31 @@
     </row>
     <row r="2" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>834</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>911</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>941</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>835</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="G2" s="14" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>912</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>942</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>836</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>913</v>
-      </c>
       <c r="I2" s="13" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>743</v>
@@ -12024,7 +12018,7 @@
     </row>
     <row r="3" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>64</v>
@@ -12033,16 +12027,16 @@
         <v>65</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>543</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>544</v>
@@ -12051,68 +12045,68 @@
         <v>474</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>921</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>941</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>922</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>942</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>836</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>923</v>
-      </c>
       <c r="I4" s="13" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>747</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>743</v>
@@ -12120,7 +12114,7 @@
     </row>
     <row r="6" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>42</v>
@@ -12129,13 +12123,13 @@
         <v>497</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>498</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>740</v>
@@ -12152,7 +12146,7 @@
     </row>
     <row r="7" spans="1:10" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>191</v>
@@ -12161,10 +12155,10 @@
         <v>192</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>131</v>
@@ -12173,10 +12167,10 @@
         <v>740</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>743</v>
@@ -12184,7 +12178,7 @@
     </row>
     <row r="8" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>200</v>
@@ -12193,13 +12187,13 @@
         <v>201</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>202</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>740</v>
@@ -12216,7 +12210,7 @@
     </row>
     <row r="9" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>186</v>
@@ -12225,7 +12219,7 @@
         <v>187</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>188</v>
@@ -12240,7 +12234,7 @@
         <v>189</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>743</v>
@@ -12248,7 +12242,7 @@
     </row>
     <row r="10" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>193</v>
@@ -12257,13 +12251,13 @@
         <v>194</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>740</v>
@@ -12272,7 +12266,7 @@
         <v>195</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>743</v>
@@ -12280,7 +12274,7 @@
     </row>
     <row r="11" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>388</v>
@@ -12289,19 +12283,19 @@
         <v>389</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="E11" s="14" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>1289</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>1291</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>742</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>190</v>
@@ -12312,7 +12306,7 @@
     </row>
     <row r="12" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>353</v>
@@ -12321,16 +12315,16 @@
         <v>354</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>355</v>
@@ -12344,71 +12338,71 @@
     </row>
     <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>898</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>899</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>972</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>823</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H13" s="13" t="s">
+      <c r="I13" s="14" t="s">
         <v>900</v>
       </c>
-      <c r="I13" s="14" t="s">
-        <v>901</v>
-      </c>
       <c r="J13" s="14" t="s">
-        <v>747</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>824</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>825</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>826</v>
-      </c>
       <c r="D14" s="13" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>747</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>442</v>
@@ -12417,13 +12411,13 @@
         <v>443</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>444</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>741</v>
@@ -12440,7 +12434,7 @@
     </row>
     <row r="16" spans="1:10" ht="243" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>404</v>
@@ -12449,10 +12443,10 @@
         <v>405</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>406</v>
@@ -12461,10 +12455,10 @@
         <v>740</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>743</v>
@@ -12472,39 +12466,39 @@
     </row>
     <row r="17" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>964</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>977</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>965</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>979</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>972</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>823</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>966</v>
-      </c>
       <c r="I17" s="14" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>747</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>19</v>
@@ -12513,7 +12507,7 @@
         <v>20</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>452</v>
@@ -12522,7 +12516,7 @@
         <v>453</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>20</v>
@@ -12536,63 +12530,63 @@
     </row>
     <row r="19" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>829</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>906</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>830</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>907</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>972</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>823</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>831</v>
-      </c>
       <c r="I19" s="14" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>747</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>971</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>1360</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>1372</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>972</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="G20" s="14" t="s">
         <v>1361</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="H20" s="14" t="s">
         <v>1362</v>
       </c>
-      <c r="G20" s="14" t="s">
-        <v>1363</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>1364</v>
-      </c>
       <c r="I20" s="14" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>743</v>
@@ -12600,31 +12594,31 @@
     </row>
     <row r="21" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C21" s="14" t="s">
+        <v>894</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>941</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>820</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>895</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>942</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>821</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>896</v>
-      </c>
       <c r="I21" s="13" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="J21" s="14" t="s">
         <v>743</v>
@@ -12632,28 +12626,28 @@
     </row>
     <row r="22" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C22" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>941</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>820</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H22" s="13" t="s">
         <v>897</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>942</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>821</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>898</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>553</v>
@@ -12664,7 +12658,7 @@
     </row>
     <row r="23" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>21</v>
@@ -12673,16 +12667,16 @@
         <v>22</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>458</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>460</v>
@@ -12696,31 +12690,31 @@
     </row>
     <row r="24" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>816</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>817</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>818</v>
-      </c>
       <c r="D24" s="13" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>390</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>740</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J24" s="14" t="s">
         <v>743</v>
@@ -12728,7 +12722,7 @@
     </row>
     <row r="25" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>229</v>
@@ -12737,22 +12731,22 @@
         <v>230</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E25" s="13" t="s">
+        <v>928</v>
+      </c>
+      <c r="F25" s="13" t="s">
         <v>929</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>930</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>740</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="J25" s="13" t="s">
         <v>743</v>
@@ -12760,7 +12754,7 @@
     </row>
     <row r="26" spans="1:10" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>128</v>
@@ -12769,16 +12763,16 @@
         <v>129</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>130</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>132</v>
@@ -12792,7 +12786,7 @@
     </row>
     <row r="27" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>267</v>
@@ -12801,16 +12795,16 @@
         <v>268</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>269</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>270</v>
@@ -12824,7 +12818,7 @@
     </row>
     <row r="28" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>357</v>
@@ -12833,16 +12827,16 @@
         <v>358</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>346</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>359</v>
@@ -12856,7 +12850,7 @@
     </row>
     <row r="29" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>349</v>
@@ -12865,16 +12859,16 @@
         <v>350</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>351</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H29" s="14" t="s">
         <v>352</v>
@@ -12888,7 +12882,7 @@
     </row>
     <row r="30" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>280</v>
@@ -12897,16 +12891,16 @@
         <v>281</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>282</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>249</v>
@@ -12920,7 +12914,7 @@
     </row>
     <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>345</v>
@@ -12929,16 +12923,16 @@
         <v>176</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E31" s="14" t="s">
         <v>346</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H31" s="14" t="s">
         <v>347</v>
@@ -12952,7 +12946,7 @@
     </row>
     <row r="32" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>292</v>
@@ -12961,13 +12955,13 @@
         <v>293</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>294</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>740</v>
@@ -12984,7 +12978,7 @@
     </row>
     <row r="33" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>288</v>
@@ -12993,13 +12987,13 @@
         <v>289</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>290</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>740</v>
@@ -13016,7 +13010,7 @@
     </row>
     <row r="34" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>333</v>
@@ -13025,13 +13019,13 @@
         <v>334</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>335</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>740</v>
@@ -13048,31 +13042,31 @@
     </row>
     <row r="35" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B35" s="13" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>989</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>1347</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="F35" s="14" t="s">
         <v>1348</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>991</v>
-      </c>
-      <c r="E35" s="14" t="s">
+      <c r="G35" s="14" t="s">
         <v>1349</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="H35" s="14" t="s">
         <v>1350</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="I35" s="14" t="s">
         <v>1351</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>1352</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>1353</v>
       </c>
       <c r="J35" s="13" t="s">
         <v>743</v>
@@ -13080,7 +13074,7 @@
     </row>
     <row r="36" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>256</v>
@@ -13089,7 +13083,7 @@
         <v>257</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>258</v>
@@ -13098,7 +13092,7 @@
         <v>259</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H36" s="14" t="s">
         <v>260</v>
@@ -13112,7 +13106,7 @@
     </row>
     <row r="37" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>316</v>
@@ -13121,7 +13115,7 @@
         <v>317</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>318</v>
@@ -13130,7 +13124,7 @@
         <v>319</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H37" s="14" t="s">
         <v>320</v>
@@ -13144,7 +13138,7 @@
     </row>
     <row r="38" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>341</v>
@@ -13153,7 +13147,7 @@
         <v>342</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>343</v>
@@ -13162,7 +13156,7 @@
         <v>319</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H38" s="14" t="s">
         <v>344</v>
@@ -13176,7 +13170,7 @@
     </row>
     <row r="39" spans="1:10" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>52</v>
@@ -13185,13 +13179,13 @@
         <v>53</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>740</v>
@@ -13200,7 +13194,7 @@
         <v>516</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J39" s="14" t="s">
         <v>743</v>
@@ -13208,7 +13202,7 @@
     </row>
     <row r="40" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>99</v>
@@ -13217,13 +13211,13 @@
         <v>619</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="G40" s="14" t="s">
         <v>740</v>
@@ -13232,36 +13226,36 @@
         <v>620</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C41" s="14" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>941</v>
+      </c>
+      <c r="E41" s="13" t="s">
         <v>1267</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>942</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>1269</v>
-      </c>
       <c r="F41" s="14" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="G41" s="14" t="s">
         <v>740</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="I41" s="13" t="s">
         <v>553</v>
@@ -13272,7 +13266,7 @@
     </row>
     <row r="42" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>0</v>
@@ -13281,7 +13275,7 @@
         <v>424</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>425</v>
@@ -13304,39 +13298,39 @@
     </row>
     <row r="43" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="B43" s="13" t="s">
+        <v>826</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>903</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H43" s="13" t="s">
         <v>827</v>
       </c>
-      <c r="C43" s="14" t="s">
-        <v>904</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>972</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>823</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>828</v>
-      </c>
       <c r="I43" s="14" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>747</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="182.25" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>1</v>
@@ -13345,7 +13339,7 @@
         <v>2</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E44" s="14" t="s">
         <v>428</v>
@@ -13368,7 +13362,7 @@
     </row>
     <row r="45" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>11</v>
@@ -13377,13 +13371,13 @@
         <v>12</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E45" s="14" t="s">
         <v>446</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="G45" s="14" t="s">
         <v>740</v>
@@ -13400,95 +13394,95 @@
     </row>
     <row r="46" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B46" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>818</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="F46" s="14" t="s">
         <v>809</v>
       </c>
-      <c r="C46" s="14" t="s">
-        <v>819</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>972</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>810</v>
-      </c>
       <c r="G46" s="14" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="H46" s="13" t="s">
+        <v>887</v>
+      </c>
+      <c r="I46" s="13" t="s">
         <v>888</v>
       </c>
-      <c r="I46" s="13" t="s">
-        <v>889</v>
-      </c>
       <c r="J46" s="14" t="s">
-        <v>747</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B47" s="13" t="s">
+        <v>810</v>
+      </c>
+      <c r="C47" s="14" t="s">
         <v>811</v>
       </c>
-      <c r="C47" s="14" t="s">
-        <v>812</v>
-      </c>
       <c r="D47" s="13" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>747</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B48" s="13" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H48" s="13" t="s">
         <v>1282</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="I48" s="13" t="s">
         <v>1283</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>972</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>810</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>1284</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>1285</v>
       </c>
       <c r="J48" s="14" t="s">
         <v>743</v>
@@ -13496,95 +13490,95 @@
     </row>
     <row r="49" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="H49" s="13" t="s">
+        <v>887</v>
+      </c>
+      <c r="I49" s="13" t="s">
         <v>888</v>
       </c>
-      <c r="I49" s="13" t="s">
-        <v>889</v>
-      </c>
       <c r="J49" s="14" t="s">
-        <v>747</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B50" s="13" t="s">
+        <v>812</v>
+      </c>
+      <c r="C50" s="14" t="s">
         <v>813</v>
       </c>
-      <c r="C50" s="14" t="s">
-        <v>814</v>
-      </c>
       <c r="D50" s="13" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="H50" s="13" t="s">
+        <v>887</v>
+      </c>
+      <c r="I50" s="13" t="s">
         <v>888</v>
       </c>
-      <c r="I50" s="13" t="s">
-        <v>889</v>
-      </c>
       <c r="J50" s="14" t="s">
-        <v>747</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B51" s="13" t="s">
+        <v>814</v>
+      </c>
+      <c r="C51" s="14" t="s">
         <v>815</v>
       </c>
-      <c r="C51" s="14" t="s">
-        <v>816</v>
-      </c>
       <c r="D51" s="13" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J51" s="14" t="s">
         <v>743</v>
@@ -13592,7 +13586,7 @@
     </row>
     <row r="52" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>625</v>
@@ -13601,13 +13595,13 @@
         <v>626</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E52" s="14" t="s">
+        <v>939</v>
+      </c>
+      <c r="F52" s="14" t="s">
         <v>940</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>941</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>740</v>
@@ -13624,31 +13618,31 @@
     </row>
     <row r="53" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B53" s="10" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E53" s="14" t="s">
         <v>1354</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="F53" s="14" t="s">
         <v>1355</v>
       </c>
-      <c r="D53" s="14" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E53" s="14" t="s">
+      <c r="G53" s="14" t="s">
         <v>1356</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="H53" s="14" t="s">
         <v>1357</v>
       </c>
-      <c r="G53" s="14" t="s">
-        <v>1358</v>
-      </c>
-      <c r="H53" s="14" t="s">
-        <v>1359</v>
-      </c>
       <c r="I53" s="14" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="J53" s="13" t="s">
         <v>743</v>
@@ -13656,7 +13650,7 @@
     </row>
     <row r="54" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>534</v>
@@ -13665,13 +13659,13 @@
         <v>535</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>536</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>740</v>
@@ -13683,36 +13677,36 @@
         <v>423</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C55" s="14" t="s">
+        <v>890</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>941</v>
+      </c>
+      <c r="E55" s="13" t="s">
         <v>891</v>
       </c>
-      <c r="D55" s="13" t="s">
-        <v>942</v>
-      </c>
-      <c r="E55" s="13" t="s">
+      <c r="F55" s="14" t="s">
         <v>892</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>893</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>740</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="J55" s="14" t="s">
         <v>743</v>
@@ -13720,7 +13714,7 @@
     </row>
     <row r="56" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>90</v>
@@ -13729,22 +13723,22 @@
         <v>596</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>597</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H56" s="14" t="s">
         <v>516</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="J56" s="14" t="s">
         <v>743</v>
@@ -13752,7 +13746,7 @@
     </row>
     <row r="57" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>115</v>
@@ -13761,7 +13755,7 @@
         <v>116</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E57" s="14" t="s">
         <v>656</v>
@@ -13770,13 +13764,13 @@
         <v>657</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="H57" s="14" t="s">
         <v>658</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="J57" s="14" t="s">
         <v>743</v>
@@ -13784,7 +13778,7 @@
     </row>
     <row r="58" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>171</v>
@@ -13793,7 +13787,7 @@
         <v>172</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E58" s="14" t="s">
         <v>537</v>
@@ -13802,7 +13796,7 @@
         <v>716</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="H58" s="14" t="s">
         <v>717</v>
@@ -13816,7 +13810,7 @@
     </row>
     <row r="59" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>82</v>
@@ -13825,22 +13819,22 @@
         <v>83</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E59" s="14" t="s">
         <v>480</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="H59" s="14" t="s">
         <v>78</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J59" s="14" t="s">
         <v>743</v>
@@ -13848,7 +13842,7 @@
     </row>
     <row r="60" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>77</v>
@@ -13857,16 +13851,16 @@
         <v>585</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E60" s="14" t="s">
         <v>480</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="H60" s="14" t="s">
         <v>78</v>
@@ -13875,12 +13869,12 @@
         <v>502</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>747</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>15</v>
@@ -13889,7 +13883,7 @@
         <v>451</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E61" s="14" t="s">
         <v>452</v>
@@ -13898,13 +13892,13 @@
         <v>453</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H61" s="14" t="s">
         <v>454</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J61" s="14" t="s">
         <v>743</v>
@@ -13912,7 +13906,7 @@
     </row>
     <row r="62" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>87</v>
@@ -13921,7 +13915,7 @@
         <v>588</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E62" s="14" t="s">
         <v>480</v>
@@ -13930,7 +13924,7 @@
         <v>510</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="H62" s="14" t="s">
         <v>589</v>
@@ -13944,7 +13938,7 @@
     </row>
     <row r="63" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>80</v>
@@ -13953,30 +13947,30 @@
         <v>81</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E63" s="14" t="s">
         <v>480</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I63" s="14" t="s">
         <v>502</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>747</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>75</v>
@@ -13985,16 +13979,16 @@
         <v>584</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E64" s="14" t="s">
         <v>480</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="H64" s="14" t="s">
         <v>76</v>
@@ -14008,7 +14002,7 @@
     </row>
     <row r="65" spans="1:10" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>538</v>
@@ -14017,13 +14011,13 @@
         <v>539</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="G65" s="14" t="s">
         <v>741</v>
@@ -14032,7 +14026,7 @@
         <v>540</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J65" s="14" t="s">
         <v>743</v>
@@ -14040,7 +14034,7 @@
     </row>
     <row r="66" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>50</v>
@@ -14049,16 +14043,16 @@
         <v>509</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="H66" s="14" t="s">
         <v>511</v>
@@ -14072,16 +14066,16 @@
     </row>
     <row r="67" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>79</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E67" s="14" t="s">
         <v>480</v>
@@ -14090,13 +14084,13 @@
         <v>510</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="H67" s="14" t="s">
         <v>78</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J67" s="14" t="s">
         <v>743</v>
@@ -14104,16 +14098,16 @@
     </row>
     <row r="68" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>84</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E68" s="14" t="s">
         <v>480</v>
@@ -14122,13 +14116,13 @@
         <v>510</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="H68" s="14" t="s">
         <v>78</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J68" s="14" t="s">
         <v>743</v>
@@ -14136,39 +14130,39 @@
     </row>
     <row r="69" spans="1:10" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B69" s="13" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>989</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F69" s="14" t="s">
         <v>1319</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="G69" s="14" t="s">
+        <v>980</v>
+      </c>
+      <c r="H69" s="14" t="s">
         <v>1320</v>
       </c>
-      <c r="D69" s="14" t="s">
-        <v>991</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>1323</v>
-      </c>
-      <c r="F69" s="14" t="s">
-        <v>1321</v>
-      </c>
-      <c r="G69" s="14" t="s">
-        <v>982</v>
-      </c>
-      <c r="H69" s="14" t="s">
-        <v>1322</v>
-      </c>
       <c r="I69" s="14" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>207</v>
@@ -14177,30 +14171,30 @@
         <v>208</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F70" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H70" s="13" t="s">
         <v>770</v>
-      </c>
-      <c r="G70" s="14" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>771</v>
       </c>
       <c r="I70" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="J70" s="13" t="s">
-        <v>747</v>
+      <c r="J70" s="14" t="s">
+        <v>1575</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>41</v>
@@ -14209,7 +14203,7 @@
         <v>494</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E71" s="14" t="s">
         <v>480</v>
@@ -14218,7 +14212,7 @@
         <v>480</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="H71" s="14" t="s">
         <v>495</v>
@@ -14232,7 +14226,7 @@
     </row>
     <row r="72" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>103</v>
@@ -14241,7 +14235,7 @@
         <v>631</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E72" s="14" t="s">
         <v>632</v>
@@ -14264,7 +14258,7 @@
     </row>
     <row r="73" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>91</v>
@@ -14273,7 +14267,7 @@
         <v>92</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E73" s="14" t="s">
         <v>599</v>
@@ -14282,7 +14276,7 @@
         <v>598</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H73" s="14" t="s">
         <v>600</v>
@@ -14296,7 +14290,7 @@
     </row>
     <row r="74" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>196</v>
@@ -14305,7 +14299,7 @@
         <v>197</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E74" s="14" t="s">
         <v>198</v>
@@ -14314,7 +14308,7 @@
         <v>453</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H74" s="14" t="s">
         <v>199</v>
@@ -14328,31 +14322,31 @@
     </row>
     <row r="75" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C75" s="14" t="s">
+        <v>907</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H75" s="13" t="s">
         <v>908</v>
       </c>
-      <c r="D75" s="13" t="s">
-        <v>972</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>823</v>
-      </c>
-      <c r="G75" s="14" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H75" s="13" t="s">
-        <v>909</v>
-      </c>
       <c r="I75" s="13" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J75" s="14" t="s">
         <v>743</v>
@@ -14360,7 +14354,7 @@
     </row>
     <row r="76" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>85</v>
@@ -14369,7 +14363,7 @@
         <v>86</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E76" s="14" t="s">
         <v>480</v>
@@ -14378,7 +14372,7 @@
         <v>510</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="H76" s="14" t="s">
         <v>557</v>
@@ -14392,7 +14386,7 @@
     </row>
     <row r="77" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>216</v>
@@ -14401,30 +14395,30 @@
         <v>217</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F77" s="13" t="s">
         <v>453</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="I77" s="14" t="s">
         <v>654</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>16</v>
@@ -14433,7 +14427,7 @@
         <v>456</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E78" s="14" t="s">
         <v>452</v>
@@ -14442,7 +14436,7 @@
         <v>453</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H78" s="14" t="s">
         <v>457</v>
@@ -14456,7 +14450,7 @@
     </row>
     <row r="79" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>17</v>
@@ -14465,7 +14459,7 @@
         <v>18</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E79" s="14" t="s">
         <v>452</v>
@@ -14474,7 +14468,7 @@
         <v>453</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H79" s="14" t="s">
         <v>18</v>
@@ -14488,31 +14482,31 @@
     </row>
     <row r="80" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C80" s="14" t="s">
+        <v>904</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="G80" s="14" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H80" s="13" t="s">
         <v>905</v>
       </c>
-      <c r="D80" s="13" t="s">
-        <v>972</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="F80" s="14" t="s">
-        <v>823</v>
-      </c>
-      <c r="G80" s="14" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H80" s="13" t="s">
-        <v>906</v>
-      </c>
       <c r="I80" s="13" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J80" s="14" t="s">
         <v>743</v>
@@ -14520,7 +14514,7 @@
     </row>
     <row r="81" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>412</v>
@@ -14529,7 +14523,7 @@
         <v>413</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E81" s="14" t="s">
         <v>414</v>
@@ -14544,7 +14538,7 @@
         <v>416</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J81" s="14" t="s">
         <v>743</v>
@@ -14552,16 +14546,16 @@
     </row>
     <row r="82" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E82" s="14" t="s">
         <v>645</v>
@@ -14584,7 +14578,7 @@
     </row>
     <row r="83" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>143</v>
@@ -14593,7 +14587,7 @@
         <v>144</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E83" s="14" t="s">
         <v>683</v>
@@ -14616,39 +14610,39 @@
     </row>
     <row r="84" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C84" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H84" s="13" t="s">
+        <v>909</v>
+      </c>
+      <c r="I84" s="13" t="s">
         <v>910</v>
       </c>
-      <c r="D84" s="13" t="s">
-        <v>972</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="F84" s="14" t="s">
-        <v>823</v>
-      </c>
-      <c r="G84" s="14" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H84" s="13" t="s">
-        <v>910</v>
-      </c>
-      <c r="I84" s="13" t="s">
-        <v>911</v>
-      </c>
       <c r="J84" s="14" t="s">
-        <v>747</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>175</v>
@@ -14657,7 +14651,7 @@
         <v>176</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E85" s="14" t="s">
         <v>665</v>
@@ -14680,7 +14674,7 @@
     </row>
     <row r="86" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A86" s="12" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>122</v>
@@ -14689,7 +14683,7 @@
         <v>123</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E86" s="14" t="s">
         <v>665</v>
@@ -14698,7 +14692,7 @@
         <v>666</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H86" s="14" t="s">
         <v>641</v>
@@ -14712,7 +14706,7 @@
     </row>
     <row r="87" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B87" s="13" t="s">
         <v>140</v>
@@ -14721,7 +14715,7 @@
         <v>141</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E87" s="14" t="s">
         <v>678</v>
@@ -14744,7 +14738,7 @@
     </row>
     <row r="88" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>135</v>
@@ -14753,13 +14747,13 @@
         <v>136</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E88" s="14" t="s">
         <v>672</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="G88" s="14" t="s">
         <v>740</v>
@@ -14776,7 +14770,7 @@
     </row>
     <row r="89" spans="1:10" ht="243" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>638</v>
@@ -14785,7 +14779,7 @@
         <v>108</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E89" s="14" t="s">
         <v>639</v>
@@ -14794,7 +14788,7 @@
         <v>640</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H89" s="14" t="s">
         <v>641</v>
@@ -14808,16 +14802,16 @@
     </row>
     <row r="90" spans="1:10" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E90" s="14" t="s">
         <v>642</v>
@@ -14840,7 +14834,7 @@
     </row>
     <row r="91" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>179</v>
@@ -14849,13 +14843,13 @@
         <v>180</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E91" s="14" t="s">
         <v>722</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="G91" s="14" t="s">
         <v>740</v>
@@ -14872,7 +14866,7 @@
     </row>
     <row r="92" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B92" s="13" t="s">
         <v>163</v>
@@ -14881,7 +14875,7 @@
         <v>164</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E92" s="14" t="s">
         <v>708</v>
@@ -14904,7 +14898,7 @@
     </row>
     <row r="93" spans="1:10" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>159</v>
@@ -14913,7 +14907,7 @@
         <v>160</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E93" s="14" t="s">
         <v>703</v>
@@ -14936,7 +14930,7 @@
     </row>
     <row r="94" spans="1:10" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B94" s="13" t="s">
         <v>573</v>
@@ -14945,7 +14939,7 @@
         <v>574</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E94" s="14" t="s">
         <v>575</v>
@@ -14968,7 +14962,7 @@
     </row>
     <row r="95" spans="1:10" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B95" s="13" t="s">
         <v>13</v>
@@ -14977,7 +14971,7 @@
         <v>14</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E95" s="14" t="s">
         <v>448</v>
@@ -14992,7 +14986,7 @@
         <v>450</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J95" s="14" t="s">
         <v>743</v>
@@ -15000,7 +14994,7 @@
     </row>
     <row r="96" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B96" s="13" t="s">
         <v>417</v>
@@ -15009,13 +15003,13 @@
         <v>418</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E96" s="14" t="s">
         <v>419</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="G96" s="14" t="s">
         <v>742</v>
@@ -15024,7 +15018,7 @@
         <v>420</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J96" s="14" t="s">
         <v>743</v>
@@ -15032,7 +15026,7 @@
     </row>
     <row r="97" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B97" s="13" t="s">
         <v>48</v>
@@ -15041,13 +15035,13 @@
         <v>49</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="E97" s="14" t="s">
         <v>507</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="G97" s="14" t="s">
         <v>742</v>
@@ -15064,22 +15058,22 @@
     </row>
     <row r="98" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B98" s="13" t="s">
         <v>570</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E98" s="14" t="s">
         <v>571</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="G98" s="14" t="s">
         <v>742</v>
@@ -15096,7 +15090,7 @@
     </row>
     <row r="99" spans="1:10" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B99" s="13" t="s">
         <v>153</v>
@@ -15105,7 +15099,7 @@
         <v>154</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E99" s="14" t="s">
         <v>694</v>
@@ -15128,7 +15122,7 @@
     </row>
     <row r="100" spans="1:10" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B100" s="13" t="s">
         <v>308</v>
@@ -15137,7 +15131,7 @@
         <v>309</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E100" s="14" t="s">
         <v>310</v>
@@ -15160,7 +15154,7 @@
     </row>
     <row r="101" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B101" s="13" t="s">
         <v>296</v>
@@ -15169,7 +15163,7 @@
         <v>297</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E101" s="14" t="s">
         <v>298</v>
@@ -15192,7 +15186,7 @@
     </row>
     <row r="102" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B102" s="13" t="s">
         <v>364</v>
@@ -15201,7 +15195,7 @@
         <v>365</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E102" s="14" t="s">
         <v>366</v>
@@ -15224,7 +15218,7 @@
     </row>
     <row r="103" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B103" s="13" t="s">
         <v>329</v>
@@ -15233,7 +15227,7 @@
         <v>330</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="E103" s="14" t="s">
         <v>331</v>
@@ -15256,7 +15250,7 @@
     </row>
     <row r="104" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B104" s="13" t="s">
         <v>380</v>
@@ -15265,7 +15259,7 @@
         <v>381</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E104" s="14" t="s">
         <v>382</v>
@@ -15288,7 +15282,7 @@
     </row>
     <row r="105" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B105" s="13" t="s">
         <v>321</v>
@@ -15297,7 +15291,7 @@
         <v>322</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E105" s="14" t="s">
         <v>323</v>
@@ -15320,7 +15314,7 @@
     </row>
     <row r="106" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B106" s="13" t="s">
         <v>271</v>
@@ -15329,7 +15323,7 @@
         <v>272</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="E106" s="14" t="s">
         <v>273</v>
@@ -15352,7 +15346,7 @@
     </row>
     <row r="107" spans="1:10" ht="324" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B107" s="13" t="s">
         <v>376</v>
@@ -15361,7 +15355,7 @@
         <v>377</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E107" s="14" t="s">
         <v>378</v>
@@ -15376,7 +15370,7 @@
         <v>379</v>
       </c>
       <c r="I107" s="14" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="J107" s="14" t="s">
         <v>743</v>
@@ -15384,7 +15378,7 @@
     </row>
     <row r="108" spans="1:10" ht="162" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B108" s="13" t="s">
         <v>304</v>
@@ -15393,7 +15387,7 @@
         <v>305</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="E108" s="14" t="s">
         <v>306</v>
@@ -15416,7 +15410,7 @@
     </row>
     <row r="109" spans="1:10" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B109" s="13" t="s">
         <v>325</v>
@@ -15425,7 +15419,7 @@
         <v>326</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E109" s="14" t="s">
         <v>327</v>
@@ -15443,12 +15437,12 @@
         <v>654</v>
       </c>
       <c r="J109" s="14" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B110" s="13" t="s">
         <v>360</v>
@@ -15457,7 +15451,7 @@
         <v>361</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E110" s="14" t="s">
         <v>362</v>
@@ -15472,7 +15466,7 @@
         <v>363</v>
       </c>
       <c r="I110" s="14" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="J110" s="14" t="s">
         <v>743</v>
@@ -15480,7 +15474,7 @@
     </row>
     <row r="111" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B111" s="13" t="s">
         <v>391</v>
@@ -15489,7 +15483,7 @@
         <v>392</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E111" s="14" t="s">
         <v>393</v>
@@ -15504,7 +15498,7 @@
         <v>394</v>
       </c>
       <c r="I111" s="14" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="J111" s="14" t="s">
         <v>743</v>
@@ -15512,31 +15506,31 @@
     </row>
     <row r="112" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="B112" s="13" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>970</v>
+      </c>
+      <c r="E112" s="14" t="s">
         <v>1365</v>
       </c>
-      <c r="C112" s="14" t="s">
+      <c r="F112" s="14" t="s">
         <v>1366</v>
       </c>
-      <c r="D112" s="14" t="s">
-        <v>971</v>
-      </c>
-      <c r="E112" s="14" t="s">
+      <c r="G112" s="14" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H112" s="14" t="s">
         <v>1367</v>
       </c>
-      <c r="F112" s="14" t="s">
+      <c r="I112" s="14" t="s">
         <v>1368</v>
-      </c>
-      <c r="G112" s="14" t="s">
-        <v>1351</v>
-      </c>
-      <c r="H112" s="14" t="s">
-        <v>1369</v>
-      </c>
-      <c r="I112" s="14" t="s">
-        <v>1370</v>
       </c>
       <c r="J112" s="14" t="s">
         <v>743</v>
@@ -15544,28 +15538,28 @@
     </row>
     <row r="113" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B113" s="10" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D113" s="14" t="s">
+        <v>970</v>
+      </c>
+      <c r="E113" s="13" t="s">
         <v>1371</v>
       </c>
-      <c r="C113" s="6" t="s">
-        <v>1376</v>
-      </c>
-      <c r="D113" s="14" t="s">
-        <v>971</v>
-      </c>
-      <c r="E113" s="13" t="s">
+      <c r="F113" s="14" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G113" s="14" t="s">
         <v>1373</v>
       </c>
-      <c r="F113" s="14" t="s">
-        <v>1374</v>
-      </c>
-      <c r="G113" s="14" t="s">
+      <c r="H113" s="13" t="s">
         <v>1375</v>
-      </c>
-      <c r="H113" s="13" t="s">
-        <v>1377</v>
       </c>
       <c r="I113" s="14" t="s">
         <v>190</v>
@@ -15576,28 +15570,28 @@
     </row>
     <row r="114" spans="1:10" ht="303.75" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B114" s="10" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>989</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F114" s="13" t="s">
         <v>1394</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="G114" s="13" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H114" s="14" t="s">
         <v>1395</v>
-      </c>
-      <c r="D114" s="14" t="s">
-        <v>991</v>
-      </c>
-      <c r="E114" s="14" t="s">
-        <v>1396</v>
-      </c>
-      <c r="F114" s="13" t="s">
-        <v>1397</v>
-      </c>
-      <c r="G114" s="13" t="s">
-        <v>1351</v>
-      </c>
-      <c r="H114" s="14" t="s">
-        <v>1398</v>
       </c>
       <c r="I114" s="14" t="s">
         <v>190</v>
@@ -15608,63 +15602,63 @@
     </row>
     <row r="115" spans="1:10" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B115" s="10" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D115" s="14" t="s">
         <v>1378</v>
       </c>
-      <c r="C115" s="14" t="s">
-        <v>1384</v>
-      </c>
-      <c r="D115" s="14" t="s">
+      <c r="E115" s="14" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F115" s="14" t="s">
         <v>1380</v>
       </c>
-      <c r="E115" s="14" t="s">
+      <c r="G115" s="14" t="s">
         <v>1381</v>
       </c>
-      <c r="F115" s="14" t="s">
-        <v>1382</v>
-      </c>
-      <c r="G115" s="14" t="s">
+      <c r="H115" s="14" t="s">
+        <v>1377</v>
+      </c>
+      <c r="I115" s="14" t="s">
         <v>1383</v>
       </c>
-      <c r="H115" s="14" t="s">
-        <v>1379</v>
-      </c>
-      <c r="I115" s="14" t="s">
-        <v>1386</v>
-      </c>
       <c r="J115" s="14" t="s">
-        <v>1385</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="182.25" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B116" s="10" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D116" s="14" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E116" s="14" t="s">
         <v>1387</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="F116" s="14" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G116" s="14" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H116" s="14" t="s">
         <v>1389</v>
       </c>
-      <c r="D116" s="14" t="s">
-        <v>1388</v>
-      </c>
-      <c r="E116" s="14" t="s">
+      <c r="I116" s="14" t="s">
         <v>1390</v>
-      </c>
-      <c r="F116" s="14" t="s">
-        <v>1391</v>
-      </c>
-      <c r="G116" s="14" t="s">
-        <v>1351</v>
-      </c>
-      <c r="H116" s="14" t="s">
-        <v>1392</v>
-      </c>
-      <c r="I116" s="14" t="s">
-        <v>1393</v>
       </c>
       <c r="J116" s="14" t="s">
         <v>745</v>
@@ -15672,28 +15666,28 @@
     </row>
     <row r="117" spans="1:10" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B117" s="10" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D117" s="14" t="s">
+        <v>970</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F117" s="14" t="s">
         <v>1404</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="G117" s="14" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H117" s="14" t="s">
         <v>1405</v>
-      </c>
-      <c r="D117" s="14" t="s">
-        <v>971</v>
-      </c>
-      <c r="E117" s="14" t="s">
-        <v>1406</v>
-      </c>
-      <c r="F117" s="14" t="s">
-        <v>1407</v>
-      </c>
-      <c r="G117" s="14" t="s">
-        <v>1383</v>
-      </c>
-      <c r="H117" s="14" t="s">
-        <v>1408</v>
       </c>
       <c r="I117" s="14" t="s">
         <v>190</v>
@@ -15704,31 +15698,31 @@
     </row>
     <row r="118" spans="1:10" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B118" s="10" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D118" s="14" t="s">
+        <v>970</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F118" s="14" t="s">
         <v>1427</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="G118" s="14" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H118" s="14" t="s">
         <v>1428</v>
       </c>
-      <c r="D118" s="14" t="s">
-        <v>971</v>
-      </c>
-      <c r="E118" s="14" t="s">
-        <v>1429</v>
-      </c>
-      <c r="F118" s="14" t="s">
-        <v>1430</v>
-      </c>
-      <c r="G118" s="14" t="s">
-        <v>1351</v>
-      </c>
-      <c r="H118" s="14" t="s">
-        <v>1431</v>
-      </c>
       <c r="I118" s="14" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="J118" s="14" t="s">
         <v>743</v>
@@ -15736,7 +15730,7 @@
     </row>
     <row r="119" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B119" s="13" t="s">
         <v>300</v>
@@ -15745,7 +15739,7 @@
         <v>301</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E119" s="14" t="s">
         <v>302</v>
@@ -15754,45 +15748,45 @@
         <v>303</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H119" s="14" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="I119" s="14" t="s">
         <v>654</v>
       </c>
       <c r="J119" s="14" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E120" s="13" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F120" s="14" t="s">
         <v>303</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="I120" s="13" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J120" s="14" t="s">
         <v>743</v>
@@ -15800,7 +15794,7 @@
     </row>
     <row r="121" spans="1:10" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B121" s="13" t="s">
         <v>283</v>
@@ -15809,7 +15803,7 @@
         <v>284</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E121" s="14" t="s">
         <v>285</v>
@@ -15818,7 +15812,7 @@
         <v>286</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H121" s="14" t="s">
         <v>287</v>
@@ -15832,7 +15826,7 @@
     </row>
     <row r="122" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B122" s="13" t="s">
         <v>67</v>
@@ -15841,7 +15835,7 @@
         <v>549</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E122" s="14" t="s">
         <v>550</v>
@@ -15850,7 +15844,7 @@
         <v>551</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H122" s="14" t="s">
         <v>552</v>
@@ -15864,7 +15858,7 @@
     </row>
     <row r="123" spans="1:10" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A123" s="12" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B123" s="13" t="s">
         <v>312</v>
@@ -15873,13 +15867,13 @@
         <v>313</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E123" s="14" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G123" s="13" t="s">
         <v>740</v>
@@ -15896,7 +15890,7 @@
     </row>
     <row r="124" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B124" s="13" t="s">
         <v>236</v>
@@ -15905,22 +15899,22 @@
         <v>237</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E124" s="14" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G124" s="13" t="s">
         <v>740</v>
       </c>
       <c r="H124" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="I124" s="13" t="s">
         <v>854</v>
-      </c>
-      <c r="I124" s="13" t="s">
-        <v>855</v>
       </c>
       <c r="J124" s="13" t="s">
         <v>745</v>
@@ -15928,31 +15922,31 @@
     </row>
     <row r="125" spans="1:10" ht="243" x14ac:dyDescent="0.2">
       <c r="A125" s="12" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B125" s="13" t="s">
         <v>238</v>
       </c>
       <c r="C125" s="14" t="s">
+        <v>855</v>
+      </c>
+      <c r="D125" s="14" t="s">
+        <v>941</v>
+      </c>
+      <c r="E125" s="14" t="s">
         <v>856</v>
       </c>
-      <c r="D125" s="14" t="s">
-        <v>942</v>
-      </c>
-      <c r="E125" s="14" t="s">
-        <v>857</v>
-      </c>
       <c r="F125" s="13" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G125" s="13" t="s">
         <v>740</v>
       </c>
       <c r="H125" s="13" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="I125" s="13" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J125" s="13" t="s">
         <v>745</v>
@@ -15960,7 +15954,7 @@
     </row>
     <row r="126" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A126" s="12" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B126" s="13" t="s">
         <v>368</v>
@@ -15969,13 +15963,13 @@
         <v>369</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E126" s="14" t="s">
         <v>370</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="G126" s="13" t="s">
         <v>740</v>
@@ -15992,31 +15986,31 @@
     </row>
     <row r="127" spans="1:10" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A127" s="12" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B127" s="10" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>941</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G127" s="14" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H127" s="14" t="s">
         <v>1432</v>
       </c>
-      <c r="C127" s="6" t="s">
-        <v>1433</v>
-      </c>
-      <c r="D127" s="14" t="s">
-        <v>942</v>
-      </c>
-      <c r="E127" s="14" t="s">
-        <v>1436</v>
-      </c>
-      <c r="F127" s="14" t="s">
+      <c r="I127" s="14" t="s">
         <v>1434</v>
-      </c>
-      <c r="G127" s="14" t="s">
-        <v>1363</v>
-      </c>
-      <c r="H127" s="14" t="s">
-        <v>1435</v>
-      </c>
-      <c r="I127" s="14" t="s">
-        <v>1437</v>
       </c>
       <c r="J127" s="14" t="s">
         <v>743</v>
@@ -16024,7 +16018,7 @@
     </row>
     <row r="128" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A128" s="12" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B128" s="13" t="s">
         <v>226</v>
@@ -16033,19 +16027,19 @@
         <v>227</v>
       </c>
       <c r="D128" s="14" t="s">
+        <v>971</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>953</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>954</v>
+      </c>
+      <c r="G128" s="14" t="s">
         <v>972</v>
       </c>
-      <c r="E128" s="13" t="s">
-        <v>954</v>
-      </c>
-      <c r="F128" s="14" t="s">
+      <c r="H128" s="13" t="s">
         <v>955</v>
-      </c>
-      <c r="G128" s="14" t="s">
-        <v>973</v>
-      </c>
-      <c r="H128" s="13" t="s">
-        <v>956</v>
       </c>
       <c r="I128" s="14" t="s">
         <v>190</v>
@@ -16056,7 +16050,7 @@
     </row>
     <row r="129" spans="1:10" ht="162" x14ac:dyDescent="0.2">
       <c r="A129" s="12" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B129" s="13" t="s">
         <v>407</v>
@@ -16065,7 +16059,7 @@
         <v>408</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E129" s="14" t="s">
         <v>409</v>
@@ -16074,13 +16068,13 @@
         <v>410</v>
       </c>
       <c r="G129" s="14" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H129" s="14" t="s">
         <v>411</v>
       </c>
       <c r="I129" s="14" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J129" s="14" t="s">
         <v>743</v>
@@ -16088,31 +16082,31 @@
     </row>
     <row r="130" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A130" s="12" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B130" s="13" t="s">
         <v>210</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E130" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="F130" s="13" t="s">
         <v>775</v>
-      </c>
-      <c r="F130" s="13" t="s">
-        <v>776</v>
       </c>
       <c r="G130" s="13" t="s">
         <v>740</v>
       </c>
       <c r="H130" s="13" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I130" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J130" s="13" t="s">
         <v>743</v>
@@ -16120,7 +16114,7 @@
     </row>
     <row r="131" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A131" s="12" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B131" s="13" t="s">
         <v>218</v>
@@ -16129,30 +16123,30 @@
         <v>219</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E131" s="13" t="s">
+        <v>789</v>
+      </c>
+      <c r="F131" s="13" t="s">
         <v>790</v>
       </c>
-      <c r="F131" s="13" t="s">
+      <c r="G131" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="H131" s="13" t="s">
         <v>791</v>
       </c>
-      <c r="G131" s="13" t="s">
-        <v>748</v>
-      </c>
-      <c r="H131" s="13" t="s">
-        <v>792</v>
-      </c>
       <c r="I131" s="13" t="s">
-        <v>784</v>
-      </c>
-      <c r="J131" s="13" t="s">
-        <v>747</v>
+        <v>783</v>
+      </c>
+      <c r="J131" s="14" t="s">
+        <v>1575</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A132" s="12" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B132" s="13" t="s">
         <v>66</v>
@@ -16161,7 +16155,7 @@
         <v>545</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E132" s="14" t="s">
         <v>546</v>
@@ -16179,12 +16173,12 @@
         <v>474</v>
       </c>
       <c r="J132" s="14" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B133" s="13" t="s">
         <v>606</v>
@@ -16193,7 +16187,7 @@
         <v>96</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E133" s="14" t="s">
         <v>607</v>
@@ -16208,7 +16202,7 @@
         <v>608</v>
       </c>
       <c r="I133" s="14" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J133" s="14" t="s">
         <v>743</v>
@@ -16216,7 +16210,7 @@
     </row>
     <row r="134" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B134" s="13" t="s">
         <v>25</v>
@@ -16225,7 +16219,7 @@
         <v>464</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E134" s="14" t="s">
         <v>465</v>
@@ -16248,31 +16242,31 @@
     </row>
     <row r="135" spans="1:10" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A135" s="12" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B135" s="13" t="s">
         <v>239</v>
       </c>
       <c r="C135" s="14" t="s">
+        <v>858</v>
+      </c>
+      <c r="D135" s="14" t="s">
+        <v>970</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>963</v>
+      </c>
+      <c r="F135" s="13" t="s">
+        <v>962</v>
+      </c>
+      <c r="G135" s="13" t="s">
+        <v>872</v>
+      </c>
+      <c r="H135" s="13" t="s">
         <v>859</v>
       </c>
-      <c r="D135" s="14" t="s">
-        <v>971</v>
-      </c>
-      <c r="E135" s="14" t="s">
-        <v>964</v>
-      </c>
-      <c r="F135" s="13" t="s">
-        <v>963</v>
-      </c>
-      <c r="G135" s="13" t="s">
-        <v>873</v>
-      </c>
-      <c r="H135" s="13" t="s">
+      <c r="I135" s="13" t="s">
         <v>860</v>
-      </c>
-      <c r="I135" s="13" t="s">
-        <v>861</v>
       </c>
       <c r="J135" s="13" t="s">
         <v>745</v>
@@ -16280,7 +16274,7 @@
     </row>
     <row r="136" spans="1:10" ht="162" x14ac:dyDescent="0.2">
       <c r="A136" s="12" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B136" s="13" t="s">
         <v>72</v>
@@ -16289,16 +16283,16 @@
         <v>73</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E136" s="14" t="s">
         <v>577</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H136" s="14" t="s">
         <v>578</v>
@@ -16312,31 +16306,31 @@
     </row>
     <row r="137" spans="1:10" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B137" s="13" t="s">
+        <v>987</v>
+      </c>
+      <c r="C137" s="14" t="s">
+        <v>988</v>
+      </c>
+      <c r="D137" s="13" t="s">
         <v>989</v>
       </c>
-      <c r="C137" s="14" t="s">
+      <c r="E137" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="D137" s="13" t="s">
+      <c r="F137" s="14" t="s">
+        <v>992</v>
+      </c>
+      <c r="G137" s="14" t="s">
+        <v>759</v>
+      </c>
+      <c r="H137" s="13" t="s">
         <v>991</v>
       </c>
-      <c r="E137" s="13" t="s">
-        <v>992</v>
-      </c>
-      <c r="F137" s="14" t="s">
-        <v>994</v>
-      </c>
-      <c r="G137" s="14" t="s">
-        <v>760</v>
-      </c>
-      <c r="H137" s="13" t="s">
-        <v>993</v>
-      </c>
       <c r="I137" s="13" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J137" s="14" t="s">
         <v>745</v>
@@ -16344,31 +16338,31 @@
     </row>
     <row r="138" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B138" s="13" t="s">
         <v>222</v>
       </c>
       <c r="C138" s="14" t="s">
+        <v>800</v>
+      </c>
+      <c r="D138" s="14" t="s">
+        <v>971</v>
+      </c>
+      <c r="E138" s="13" t="s">
         <v>801</v>
       </c>
-      <c r="D138" s="14" t="s">
-        <v>972</v>
-      </c>
-      <c r="E138" s="13" t="s">
+      <c r="F138" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="G138" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="H138" s="13" t="s">
         <v>802</v>
       </c>
-      <c r="F138" s="13" t="s">
-        <v>782</v>
-      </c>
-      <c r="G138" s="13" t="s">
-        <v>748</v>
-      </c>
-      <c r="H138" s="13" t="s">
-        <v>803</v>
-      </c>
       <c r="I138" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J138" s="13" t="s">
         <v>743</v>
@@ -16376,31 +16370,31 @@
     </row>
     <row r="139" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A139" s="12" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B139" s="13" t="s">
         <v>211</v>
       </c>
       <c r="C139" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="D139" s="14" t="s">
+        <v>970</v>
+      </c>
+      <c r="E139" s="13" t="s">
         <v>780</v>
       </c>
-      <c r="D139" s="14" t="s">
-        <v>971</v>
-      </c>
-      <c r="E139" s="13" t="s">
+      <c r="F139" s="13" t="s">
         <v>781</v>
       </c>
-      <c r="F139" s="13" t="s">
+      <c r="G139" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="H139" s="13" t="s">
         <v>782</v>
       </c>
-      <c r="G139" s="13" t="s">
-        <v>748</v>
-      </c>
-      <c r="H139" s="13" t="s">
+      <c r="I139" s="13" t="s">
         <v>783</v>
-      </c>
-      <c r="I139" s="13" t="s">
-        <v>784</v>
       </c>
       <c r="J139" s="13" t="s">
         <v>743</v>
@@ -16408,7 +16402,7 @@
     </row>
     <row r="140" spans="1:10" ht="182.25" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B140" s="13" t="s">
         <v>71</v>
@@ -16417,7 +16411,7 @@
         <v>566</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E140" s="14" t="s">
         <v>567</v>
@@ -16426,7 +16420,7 @@
         <v>568</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H140" s="14" t="s">
         <v>569</v>
@@ -16440,31 +16434,31 @@
     </row>
     <row r="141" spans="1:10" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B141" s="13" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C141" s="14" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D141" s="14" t="s">
+        <v>989</v>
+      </c>
+      <c r="E141" s="14" t="s">
         <v>1306</v>
       </c>
-      <c r="C141" s="14" t="s">
+      <c r="F141" s="14" t="s">
+        <v>978</v>
+      </c>
+      <c r="G141" s="14" t="s">
+        <v>747</v>
+      </c>
+      <c r="H141" s="14" t="s">
         <v>1307</v>
       </c>
-      <c r="D141" s="14" t="s">
-        <v>991</v>
-      </c>
-      <c r="E141" s="14" t="s">
-        <v>1308</v>
-      </c>
-      <c r="F141" s="14" t="s">
-        <v>980</v>
-      </c>
-      <c r="G141" s="14" t="s">
-        <v>748</v>
-      </c>
-      <c r="H141" s="14" t="s">
-        <v>1309</v>
-      </c>
       <c r="I141" s="14" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="J141" s="14" t="s">
         <v>743</v>
@@ -16472,7 +16466,7 @@
     </row>
     <row r="142" spans="1:10" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A142" s="12" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B142" s="13" t="s">
         <v>10</v>
@@ -16481,16 +16475,16 @@
         <v>438</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F142" s="14" t="s">
         <v>439</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H142" s="14" t="s">
         <v>440</v>
@@ -16504,7 +16498,7 @@
     </row>
     <row r="143" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B143" s="13" t="s">
         <v>149</v>
@@ -16513,22 +16507,22 @@
         <v>150</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="H143" s="14" t="s">
         <v>692</v>
       </c>
       <c r="I143" s="14" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J143" s="14" t="s">
         <v>743</v>
@@ -16536,28 +16530,28 @@
     </row>
     <row r="144" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A144" s="12" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B144" s="10" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D144" s="14" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E144" s="14" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F144" s="14" t="s">
         <v>1443</v>
       </c>
-      <c r="C144" s="6" t="s">
+      <c r="G144" s="14" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H144" s="14" t="s">
         <v>1444</v>
-      </c>
-      <c r="D144" s="14" t="s">
-        <v>1380</v>
-      </c>
-      <c r="E144" s="14" t="s">
-        <v>1445</v>
-      </c>
-      <c r="F144" s="14" t="s">
-        <v>1446</v>
-      </c>
-      <c r="G144" s="14" t="s">
-        <v>1383</v>
-      </c>
-      <c r="H144" s="14" t="s">
-        <v>1447</v>
       </c>
       <c r="I144" s="14" t="s">
         <v>635</v>
@@ -16568,7 +16562,7 @@
     </row>
     <row r="145" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A145" s="12" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B145" s="13" t="s">
         <v>679</v>
@@ -16577,7 +16571,7 @@
         <v>142</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E145" s="14" t="s">
         <v>680</v>
@@ -16586,7 +16580,7 @@
         <v>681</v>
       </c>
       <c r="G145" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H145" s="14" t="s">
         <v>682</v>
@@ -16600,7 +16594,7 @@
     </row>
     <row r="146" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A146" s="12" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B146" s="13" t="s">
         <v>205</v>
@@ -16609,7 +16603,7 @@
         <v>206</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E146" s="14" t="s">
         <v>732</v>
@@ -16618,7 +16612,7 @@
         <v>733</v>
       </c>
       <c r="G146" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H146" s="14" t="s">
         <v>734</v>
@@ -16632,7 +16626,7 @@
     </row>
     <row r="147" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B147" s="13" t="s">
         <v>43</v>
@@ -16641,13 +16635,13 @@
         <v>500</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E147" s="14" t="s">
         <v>501</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="G147" s="14" t="s">
         <v>740</v>
@@ -16659,12 +16653,12 @@
         <v>502</v>
       </c>
       <c r="J147" s="14" t="s">
-        <v>747</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A148" s="12" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B148" s="13" t="s">
         <v>3</v>
@@ -16673,7 +16667,7 @@
         <v>4</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E148" s="14" t="s">
         <v>429</v>
@@ -16682,13 +16676,13 @@
         <v>430</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H148" s="14" t="s">
         <v>431</v>
       </c>
       <c r="I148" s="14" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J148" s="13" t="s">
         <v>743</v>
@@ -16696,7 +16690,7 @@
     </row>
     <row r="149" spans="1:10" ht="162" x14ac:dyDescent="0.2">
       <c r="A149" s="12" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B149" s="13" t="s">
         <v>74</v>
@@ -16705,7 +16699,7 @@
         <v>579</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E149" s="14" t="s">
         <v>580</v>
@@ -16714,7 +16708,7 @@
         <v>581</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H149" s="14" t="s">
         <v>582</v>
@@ -16728,7 +16722,7 @@
     </row>
     <row r="150" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B150" s="13" t="s">
         <v>529</v>
@@ -16737,16 +16731,16 @@
         <v>530</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E150" s="14" t="s">
         <v>531</v>
       </c>
       <c r="F150" s="14" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H150" s="14" t="s">
         <v>516</v>
@@ -16760,31 +16754,31 @@
     </row>
     <row r="151" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A151" s="12" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D151" s="13" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E151" s="13" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F151" s="14" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="H151" s="13" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="I151" s="13" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J151" s="14" t="s">
         <v>743</v>
@@ -16792,7 +16786,7 @@
     </row>
     <row r="152" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A152" s="12" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B152" s="13" t="s">
         <v>51</v>
@@ -16801,7 +16795,7 @@
         <v>512</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E152" s="14" t="s">
         <v>513</v>
@@ -16810,7 +16804,7 @@
         <v>514</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H152" s="14" t="s">
         <v>515</v>
@@ -16824,7 +16818,7 @@
     </row>
     <row r="153" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A153" s="12" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B153" s="13" t="s">
         <v>46</v>
@@ -16833,13 +16827,13 @@
         <v>47</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E153" s="14" t="s">
         <v>504</v>
       </c>
       <c r="F153" s="14" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="G153" s="14" t="s">
         <v>740</v>
@@ -16856,7 +16850,7 @@
     </row>
     <row r="154" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A154" s="12" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B154" s="13" t="s">
         <v>56</v>
@@ -16865,16 +16859,16 @@
         <v>522</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E154" s="14" t="s">
         <v>523</v>
       </c>
       <c r="F154" s="14" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G154" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H154" s="14" t="s">
         <v>516</v>
@@ -16888,7 +16882,7 @@
     </row>
     <row r="155" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A155" s="12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B155" s="13" t="s">
         <v>55</v>
@@ -16897,22 +16891,22 @@
         <v>520</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E155" s="14" t="s">
         <v>521</v>
       </c>
       <c r="F155" s="14" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G155" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H155" s="14" t="s">
         <v>516</v>
       </c>
       <c r="I155" s="14" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J155" s="14" t="s">
         <v>743</v>
@@ -16920,39 +16914,39 @@
     </row>
     <row r="156" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A156" s="12" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C156" s="14" t="s">
         <v>490</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E156" s="14" t="s">
         <v>491</v>
       </c>
       <c r="F156" s="14" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="G156" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H156" s="14" t="s">
         <v>492</v>
       </c>
       <c r="I156" s="14" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J156" s="14" t="s">
-        <v>747</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A157" s="12" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B157" s="13" t="s">
         <v>44</v>
@@ -16961,19 +16955,19 @@
         <v>45</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E157" s="14" t="s">
         <v>503</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G157" s="14" t="s">
         <v>740</v>
       </c>
       <c r="H157" s="14" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I157" s="14" t="s">
         <v>496</v>
@@ -16984,7 +16978,7 @@
     </row>
     <row r="158" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B158" s="13" t="s">
         <v>54</v>
@@ -16993,16 +16987,16 @@
         <v>518</v>
       </c>
       <c r="D158" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E158" s="14" t="s">
         <v>519</v>
       </c>
       <c r="F158" s="14" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="G158" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H158" s="14" t="s">
         <v>516</v>
@@ -17016,7 +17010,7 @@
     </row>
     <row r="159" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A159" s="12" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B159" s="13" t="s">
         <v>57</v>
@@ -17025,7 +17019,7 @@
         <v>524</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E159" s="14" t="s">
         <v>525</v>
@@ -17034,7 +17028,7 @@
         <v>526</v>
       </c>
       <c r="G159" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H159" s="14" t="s">
         <v>516</v>
@@ -17048,7 +17042,7 @@
     </row>
     <row r="160" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B160" s="13" t="s">
         <v>61</v>
@@ -17057,7 +17051,7 @@
         <v>62</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E160" s="14" t="s">
         <v>533</v>
@@ -17066,7 +17060,7 @@
         <v>528</v>
       </c>
       <c r="G160" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H160" s="14" t="s">
         <v>516</v>
@@ -17080,7 +17074,7 @@
     </row>
     <row r="161" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A161" s="12" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B161" s="13" t="s">
         <v>58</v>
@@ -17089,7 +17083,7 @@
         <v>59</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E161" s="14" t="s">
         <v>527</v>
@@ -17098,7 +17092,7 @@
         <v>528</v>
       </c>
       <c r="G161" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H161" s="14" t="s">
         <v>516</v>
@@ -17112,7 +17106,7 @@
     </row>
     <row r="162" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A162" s="12" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B162" s="13" t="s">
         <v>60</v>
@@ -17121,7 +17115,7 @@
         <v>532</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E162" s="14" t="s">
         <v>533</v>
@@ -17130,7 +17124,7 @@
         <v>528</v>
       </c>
       <c r="G162" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H162" s="14" t="s">
         <v>516</v>
@@ -17144,31 +17138,31 @@
     </row>
     <row r="163" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A163" s="12" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B163" s="13" t="s">
         <v>224</v>
       </c>
       <c r="C163" s="15" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E163" s="13" t="s">
+        <v>844</v>
+      </c>
+      <c r="F163" s="13" t="s">
         <v>845</v>
-      </c>
-      <c r="F163" s="13" t="s">
-        <v>846</v>
       </c>
       <c r="G163" s="13" t="s">
         <v>742</v>
       </c>
       <c r="H163" s="13" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I163" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J163" s="13" t="s">
         <v>743</v>
@@ -17176,31 +17170,31 @@
     </row>
     <row r="164" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A164" s="12" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B164" s="10" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D164" s="14" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E164" s="14" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F164" s="14" t="s">
         <v>1448</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="G164" s="14" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H164" s="14" t="s">
         <v>1449</v>
       </c>
-      <c r="D164" s="14" t="s">
-        <v>1388</v>
-      </c>
-      <c r="E164" s="14" t="s">
+      <c r="I164" s="14" t="s">
         <v>1450</v>
-      </c>
-      <c r="F164" s="14" t="s">
-        <v>1451</v>
-      </c>
-      <c r="G164" s="14" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H164" s="14" t="s">
-        <v>1452</v>
-      </c>
-      <c r="I164" s="14" t="s">
-        <v>1453</v>
       </c>
       <c r="J164" s="14" t="s">
         <v>743</v>
@@ -17208,31 +17202,31 @@
     </row>
     <row r="165" spans="1:10" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A165" s="12" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B165" s="10" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D165" s="14" t="s">
+        <v>970</v>
+      </c>
+      <c r="E165" s="14" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F165" s="14" t="s">
         <v>1438</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="G165" s="14" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H165" s="14" t="s">
         <v>1439</v>
       </c>
-      <c r="D165" s="14" t="s">
-        <v>971</v>
-      </c>
-      <c r="E165" s="14" t="s">
-        <v>1440</v>
-      </c>
-      <c r="F165" s="14" t="s">
-        <v>1441</v>
-      </c>
-      <c r="G165" s="14" t="s">
-        <v>1363</v>
-      </c>
-      <c r="H165" s="14" t="s">
-        <v>1442</v>
-      </c>
       <c r="I165" s="14" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J165" s="14" t="s">
         <v>743</v>
@@ -17240,63 +17234,63 @@
     </row>
     <row r="166" spans="1:10" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A166" s="12" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B166" s="13" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C166" s="14" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D166" s="14" t="s">
+        <v>989</v>
+      </c>
+      <c r="E166" s="14" t="s">
         <v>1332</v>
       </c>
-      <c r="C166" s="14" t="s">
+      <c r="F166" s="14" t="s">
         <v>1333</v>
       </c>
-      <c r="D166" s="14" t="s">
-        <v>991</v>
-      </c>
-      <c r="E166" s="14" t="s">
+      <c r="G166" s="14" t="s">
+        <v>747</v>
+      </c>
+      <c r="H166" s="14" t="s">
         <v>1334</v>
       </c>
-      <c r="F166" s="14" t="s">
+      <c r="I166" s="14" t="s">
         <v>1335</v>
       </c>
-      <c r="G166" s="14" t="s">
-        <v>748</v>
-      </c>
-      <c r="H166" s="14" t="s">
-        <v>1336</v>
-      </c>
-      <c r="I166" s="14" t="s">
-        <v>1337</v>
-      </c>
       <c r="J166" s="14" t="s">
-        <v>976</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A167" s="12" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B167" s="10" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C167" s="6" t="s">
         <v>1467</v>
       </c>
-      <c r="C167" s="6" t="s">
-        <v>1470</v>
-      </c>
       <c r="D167" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E167" s="14" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F167" s="14" t="s">
+        <v>1466</v>
+      </c>
+      <c r="G167" s="14" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H167" s="14" t="s">
         <v>1468</v>
       </c>
-      <c r="F167" s="14" t="s">
-        <v>1469</v>
-      </c>
-      <c r="G167" s="14" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H167" s="14" t="s">
-        <v>1471</v>
-      </c>
       <c r="I167" s="14" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J167" s="14" t="s">
         <v>743</v>
@@ -17304,28 +17298,28 @@
     </row>
     <row r="168" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A168" s="12" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B168" s="10" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D168" s="14" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E168" s="14" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F168" s="14" t="s">
         <v>1477</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="G168" s="14" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H168" s="14" t="s">
         <v>1478</v>
-      </c>
-      <c r="D168" s="14" t="s">
-        <v>1388</v>
-      </c>
-      <c r="E168" s="14" t="s">
-        <v>1479</v>
-      </c>
-      <c r="F168" s="14" t="s">
-        <v>1480</v>
-      </c>
-      <c r="G168" s="14" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H168" s="14" t="s">
-        <v>1481</v>
       </c>
       <c r="I168" s="14" t="s">
         <v>635</v>
@@ -17336,28 +17330,28 @@
     </row>
     <row r="169" spans="1:10" ht="243" x14ac:dyDescent="0.2">
       <c r="A169" s="12" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="F169" s="14" t="s">
         <v>587</v>
       </c>
       <c r="G169" s="14" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="H169" s="14" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="I169" s="14" t="s">
         <v>635</v>
@@ -17368,31 +17362,31 @@
     </row>
     <row r="170" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A170" s="12" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B170" s="10" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D170" s="14" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E170" s="14" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F170" s="14" t="s">
         <v>1472</v>
       </c>
-      <c r="C170" s="6" t="s">
+      <c r="G170" s="14" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H170" s="14" t="s">
         <v>1473</v>
       </c>
-      <c r="D170" s="14" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E170" s="14" t="s">
-        <v>1474</v>
-      </c>
-      <c r="F170" s="14" t="s">
-        <v>1475</v>
-      </c>
-      <c r="G170" s="14" t="s">
-        <v>1375</v>
-      </c>
-      <c r="H170" s="14" t="s">
-        <v>1476</v>
-      </c>
       <c r="I170" s="14" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J170" s="14" t="s">
         <v>745</v>
@@ -17400,28 +17394,28 @@
     </row>
     <row r="171" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B171" s="10" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D171" s="14" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E171" s="14" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F171" s="14" t="s">
         <v>1489</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="G171" s="14" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H171" s="14" t="s">
         <v>1490</v>
-      </c>
-      <c r="D171" s="14" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E171" s="14" t="s">
-        <v>1491</v>
-      </c>
-      <c r="F171" s="14" t="s">
-        <v>1492</v>
-      </c>
-      <c r="G171" s="14" t="s">
-        <v>1375</v>
-      </c>
-      <c r="H171" s="14" t="s">
-        <v>1493</v>
       </c>
       <c r="I171" s="14" t="s">
         <v>506</v>
@@ -17432,31 +17426,31 @@
     </row>
     <row r="172" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B172" s="10" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D172" s="14" t="s">
+        <v>989</v>
+      </c>
+      <c r="E172" s="14" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F172" s="14" t="s">
         <v>1494</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="G172" s="14" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H172" s="14" t="s">
         <v>1495</v>
       </c>
-      <c r="D172" s="14" t="s">
-        <v>991</v>
-      </c>
-      <c r="E172" s="14" t="s">
-        <v>1496</v>
-      </c>
-      <c r="F172" s="14" t="s">
-        <v>1497</v>
-      </c>
-      <c r="G172" s="14" t="s">
-        <v>1351</v>
-      </c>
-      <c r="H172" s="14" t="s">
-        <v>1498</v>
-      </c>
       <c r="I172" s="14" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J172" s="14" t="s">
         <v>743</v>
@@ -17464,28 +17458,28 @@
     </row>
     <row r="173" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A173" s="12" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B173" s="10" t="s">
         <v>348</v>
       </c>
       <c r="C173" s="6" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D173" s="14" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E173" s="14" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F173" s="14" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G173" s="14" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H173" s="14" t="s">
         <v>1500</v>
-      </c>
-      <c r="D173" s="14" t="s">
-        <v>1380</v>
-      </c>
-      <c r="E173" s="14" t="s">
-        <v>1501</v>
-      </c>
-      <c r="F173" s="14" t="s">
-        <v>1502</v>
-      </c>
-      <c r="G173" s="14" t="s">
-        <v>1375</v>
-      </c>
-      <c r="H173" s="14" t="s">
-        <v>1503</v>
       </c>
       <c r="I173" s="14" t="s">
         <v>635</v>
@@ -17496,31 +17490,31 @@
     </row>
     <row r="174" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A174" s="12" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B174" s="10" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D174" s="14" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E174" s="14" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F174" s="14" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G174" s="14" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H174" s="14" t="s">
+        <v>1551</v>
+      </c>
+      <c r="I174" s="14" t="s">
         <v>1454</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>1455</v>
-      </c>
-      <c r="D174" s="14" t="s">
-        <v>1380</v>
-      </c>
-      <c r="E174" s="14" t="s">
-        <v>1556</v>
-      </c>
-      <c r="F174" s="14" t="s">
-        <v>1456</v>
-      </c>
-      <c r="G174" s="14" t="s">
-        <v>1363</v>
-      </c>
-      <c r="H174" s="14" t="s">
-        <v>1555</v>
-      </c>
-      <c r="I174" s="14" t="s">
-        <v>1457</v>
       </c>
       <c r="J174" s="14" t="s">
         <v>743</v>
@@ -17528,28 +17522,28 @@
     </row>
     <row r="175" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A175" s="12" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>587</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="I175" s="2" t="s">
         <v>506</v>
@@ -17560,7 +17554,7 @@
     </row>
     <row r="176" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A176" s="12" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B176" s="13" t="s">
         <v>33</v>
@@ -17569,7 +17563,7 @@
         <v>34</v>
       </c>
       <c r="D176" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E176" s="14" t="s">
         <v>481</v>
@@ -17578,7 +17572,7 @@
         <v>459</v>
       </c>
       <c r="G176" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H176" s="14" t="s">
         <v>482</v>
@@ -17592,28 +17586,28 @@
     </row>
     <row r="177" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A177" s="12" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="E177" s="14" t="s">
+        <v>878</v>
+      </c>
+      <c r="F177" s="14" t="s">
         <v>879</v>
       </c>
-      <c r="F177" s="14" t="s">
-        <v>880</v>
-      </c>
       <c r="G177" s="14" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="H177" s="14" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="I177" s="14" t="s">
         <v>506</v>
@@ -17624,7 +17618,7 @@
     </row>
     <row r="178" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A178" s="12" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B178" s="13" t="s">
         <v>29</v>
@@ -17633,7 +17627,7 @@
         <v>30</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E178" s="14" t="s">
         <v>475</v>
@@ -17642,7 +17636,7 @@
         <v>459</v>
       </c>
       <c r="G178" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H178" s="14" t="s">
         <v>476</v>
@@ -17656,7 +17650,7 @@
     </row>
     <row r="179" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A179" s="12" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B179" s="13" t="s">
         <v>23</v>
@@ -17665,7 +17659,7 @@
         <v>24</v>
       </c>
       <c r="D179" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E179" s="14" t="s">
         <v>462</v>
@@ -17674,7 +17668,7 @@
         <v>459</v>
       </c>
       <c r="G179" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H179" s="14" t="s">
         <v>463</v>
@@ -17688,7 +17682,7 @@
     </row>
     <row r="180" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A180" s="12" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>88</v>
@@ -17697,7 +17691,7 @@
         <v>590</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>591</v>
@@ -17706,7 +17700,7 @@
         <v>459</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H180" s="2" t="s">
         <v>592</v>
@@ -17720,7 +17714,7 @@
     </row>
     <row r="181" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A181" s="12" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B181" s="13" t="s">
         <v>157</v>
@@ -17729,7 +17723,7 @@
         <v>158</v>
       </c>
       <c r="D181" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E181" s="14" t="s">
         <v>700</v>
@@ -17752,7 +17746,7 @@
     </row>
     <row r="182" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A182" s="12" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B182" s="13" t="s">
         <v>105</v>
@@ -17761,7 +17755,7 @@
         <v>106</v>
       </c>
       <c r="D182" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E182" s="14" t="s">
         <v>636</v>
@@ -17784,7 +17778,7 @@
     </row>
     <row r="183" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A183" s="12" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B183" s="13" t="s">
         <v>609</v>
@@ -17793,13 +17787,13 @@
         <v>97</v>
       </c>
       <c r="D183" s="14" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="E183" s="14" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="F183" s="14" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="G183" s="14" t="s">
         <v>742</v>
@@ -17816,7 +17810,7 @@
     </row>
     <row r="184" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A184" s="12" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B184" s="13" t="s">
         <v>660</v>
@@ -17825,7 +17819,7 @@
         <v>119</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="E184" s="14" t="s">
         <v>661</v>
@@ -17848,7 +17842,7 @@
     </row>
     <row r="185" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A185" s="12" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B185" s="13" t="s">
         <v>98</v>
@@ -17857,7 +17851,7 @@
         <v>611</v>
       </c>
       <c r="D185" s="14" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="E185" s="14" t="s">
         <v>612</v>
@@ -17880,7 +17874,7 @@
     </row>
     <row r="186" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A186" s="12" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B186" s="13" t="s">
         <v>5</v>
@@ -17889,7 +17883,7 @@
         <v>6</v>
       </c>
       <c r="D186" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E186" s="14" t="s">
         <v>432</v>
@@ -17912,7 +17906,7 @@
     </row>
     <row r="187" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A187" s="12" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B187" s="13" t="s">
         <v>232</v>
@@ -17921,30 +17915,30 @@
         <v>233</v>
       </c>
       <c r="D187" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E187" s="13" t="s">
+        <v>847</v>
+      </c>
+      <c r="F187" s="13" t="s">
         <v>848</v>
-      </c>
-      <c r="F187" s="13" t="s">
-        <v>849</v>
       </c>
       <c r="G187" s="13" t="s">
         <v>742</v>
       </c>
       <c r="H187" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="I187" s="13" t="s">
         <v>850</v>
       </c>
-      <c r="I187" s="13" t="s">
-        <v>851</v>
-      </c>
-      <c r="J187" s="13" t="s">
-        <v>747</v>
+      <c r="J187" s="14" t="s">
+        <v>1575</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A188" s="12" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B188" s="13" t="s">
         <v>337</v>
@@ -17953,13 +17947,13 @@
         <v>338</v>
       </c>
       <c r="D188" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E188" s="14" t="s">
         <v>339</v>
       </c>
       <c r="F188" s="14" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="G188" s="14" t="s">
         <v>742</v>
@@ -17976,7 +17970,7 @@
     </row>
     <row r="189" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A189" s="12" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B189" s="13" t="s">
         <v>100</v>
@@ -17985,7 +17979,7 @@
         <v>621</v>
       </c>
       <c r="D189" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E189" s="14" t="s">
         <v>622</v>
@@ -17994,7 +17988,7 @@
         <v>623</v>
       </c>
       <c r="G189" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H189" s="14" t="s">
         <v>624</v>
@@ -18003,36 +17997,36 @@
         <v>474</v>
       </c>
       <c r="J189" s="14" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A190" s="12" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B190" s="13" t="s">
         <v>221</v>
       </c>
       <c r="C190" s="14" t="s">
+        <v>796</v>
+      </c>
+      <c r="D190" s="14" t="s">
+        <v>971</v>
+      </c>
+      <c r="E190" s="14" t="s">
         <v>797</v>
       </c>
-      <c r="D190" s="14" t="s">
-        <v>972</v>
-      </c>
-      <c r="E190" s="14" t="s">
+      <c r="F190" s="14" t="s">
         <v>798</v>
       </c>
-      <c r="F190" s="14" t="s">
+      <c r="G190" s="14" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H190" s="13" t="s">
         <v>799</v>
       </c>
-      <c r="G190" s="14" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H190" s="13" t="s">
-        <v>800</v>
-      </c>
       <c r="I190" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J190" s="13" t="s">
         <v>743</v>
@@ -18040,7 +18034,7 @@
     </row>
     <row r="191" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A191" s="12" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B191" s="13" t="s">
         <v>173</v>
@@ -18049,7 +18043,7 @@
         <v>174</v>
       </c>
       <c r="D191" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E191" s="14" t="s">
         <v>718</v>
@@ -18058,21 +18052,21 @@
         <v>698</v>
       </c>
       <c r="G191" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H191" s="14" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="I191" s="14" t="s">
         <v>502</v>
       </c>
       <c r="J191" s="14" t="s">
-        <v>747</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="182.25" x14ac:dyDescent="0.2">
       <c r="A192" s="12" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B192" s="13" t="s">
         <v>155</v>
@@ -18081,7 +18075,7 @@
         <v>156</v>
       </c>
       <c r="D192" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E192" s="14" t="s">
         <v>697</v>
@@ -18090,7 +18084,7 @@
         <v>698</v>
       </c>
       <c r="G192" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H192" s="14" t="s">
         <v>699</v>
@@ -18104,7 +18098,7 @@
     </row>
     <row r="193" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A193" s="12" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B193" s="13" t="s">
         <v>177</v>
@@ -18113,7 +18107,7 @@
         <v>178</v>
       </c>
       <c r="D193" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E193" s="14" t="s">
         <v>719</v>
@@ -18122,13 +18116,13 @@
         <v>720</v>
       </c>
       <c r="G193" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H193" s="14" t="s">
         <v>721</v>
       </c>
       <c r="I193" s="14" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J193" s="14" t="s">
         <v>743</v>
@@ -18136,7 +18130,7 @@
     </row>
     <row r="194" spans="1:10" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A194" s="12" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B194" s="13" t="s">
         <v>137</v>
@@ -18145,7 +18139,7 @@
         <v>138</v>
       </c>
       <c r="D194" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E194" s="14" t="s">
         <v>674</v>
@@ -18154,13 +18148,13 @@
         <v>652</v>
       </c>
       <c r="G194" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H194" s="14" t="s">
         <v>675</v>
       </c>
       <c r="I194" s="14" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J194" s="14" t="s">
         <v>743</v>
@@ -18168,7 +18162,7 @@
     </row>
     <row r="195" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A195" s="12" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B195" s="13" t="s">
         <v>167</v>
@@ -18177,7 +18171,7 @@
         <v>168</v>
       </c>
       <c r="D195" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E195" s="14" t="s">
         <v>712</v>
@@ -18186,7 +18180,7 @@
         <v>652</v>
       </c>
       <c r="G195" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H195" s="14" t="s">
         <v>713</v>
@@ -18195,12 +18189,12 @@
         <v>654</v>
       </c>
       <c r="J195" s="14" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A196" s="12" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B196" s="13" t="s">
         <v>724</v>
@@ -18209,7 +18203,7 @@
         <v>181</v>
       </c>
       <c r="D196" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E196" s="14" t="s">
         <v>725</v>
@@ -18218,7 +18212,7 @@
         <v>652</v>
       </c>
       <c r="G196" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H196" s="14" t="s">
         <v>726</v>
@@ -18232,7 +18226,7 @@
     </row>
     <row r="197" spans="1:10" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A197" s="12" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B197" s="13" t="s">
         <v>161</v>
@@ -18241,7 +18235,7 @@
         <v>162</v>
       </c>
       <c r="D197" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E197" s="14" t="s">
         <v>706</v>
@@ -18250,7 +18244,7 @@
         <v>652</v>
       </c>
       <c r="G197" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H197" s="14" t="s">
         <v>707</v>
@@ -18264,7 +18258,7 @@
     </row>
     <row r="198" spans="1:10" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A198" s="12" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B198" s="13" t="s">
         <v>182</v>
@@ -18273,7 +18267,7 @@
         <v>183</v>
       </c>
       <c r="D198" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E198" s="14" t="s">
         <v>728</v>
@@ -18282,7 +18276,7 @@
         <v>652</v>
       </c>
       <c r="G198" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H198" s="14" t="s">
         <v>729</v>
@@ -18291,21 +18285,21 @@
         <v>654</v>
       </c>
       <c r="J198" s="14" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A199" s="12" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B199" s="13" t="s">
         <v>139</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="D199" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E199" s="14" t="s">
         <v>676</v>
@@ -18314,21 +18308,21 @@
         <v>652</v>
       </c>
       <c r="G199" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H199" s="14" t="s">
         <v>677</v>
       </c>
       <c r="I199" s="14" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="J199" s="14" t="s">
-        <v>976</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="324" x14ac:dyDescent="0.2">
       <c r="A200" s="12" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B200" s="13" t="s">
         <v>165</v>
@@ -18337,7 +18331,7 @@
         <v>166</v>
       </c>
       <c r="D200" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E200" s="14" t="s">
         <v>710</v>
@@ -18346,21 +18340,21 @@
         <v>652</v>
       </c>
       <c r="G200" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H200" s="14" t="s">
         <v>711</v>
       </c>
       <c r="I200" s="14" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="J200" s="14" t="s">
-        <v>976</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A201" s="12" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B201" s="13" t="s">
         <v>650</v>
@@ -18369,7 +18363,7 @@
         <v>112</v>
       </c>
       <c r="D201" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E201" s="14" t="s">
         <v>651</v>
@@ -18378,7 +18372,7 @@
         <v>652</v>
       </c>
       <c r="G201" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H201" s="14" t="s">
         <v>653</v>
@@ -18387,12 +18381,12 @@
         <v>654</v>
       </c>
       <c r="J201" s="14" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A202" s="12" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B202" s="13" t="s">
         <v>120</v>
@@ -18401,7 +18395,7 @@
         <v>121</v>
       </c>
       <c r="D202" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E202" s="14" t="s">
         <v>651</v>
@@ -18410,7 +18404,7 @@
         <v>652</v>
       </c>
       <c r="G202" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H202" s="14" t="s">
         <v>664</v>
@@ -18424,7 +18418,7 @@
     </row>
     <row r="203" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A203" s="12" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B203" s="13" t="s">
         <v>169</v>
@@ -18433,7 +18427,7 @@
         <v>170</v>
       </c>
       <c r="D203" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E203" s="14" t="s">
         <v>714</v>
@@ -18442,7 +18436,7 @@
         <v>691</v>
       </c>
       <c r="G203" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H203" s="14" t="s">
         <v>715</v>
@@ -18456,7 +18450,7 @@
     </row>
     <row r="204" spans="1:10" ht="182.25" x14ac:dyDescent="0.2">
       <c r="A204" s="12" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B204" s="13" t="s">
         <v>184</v>
@@ -18465,7 +18459,7 @@
         <v>185</v>
       </c>
       <c r="D204" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E204" s="14" t="s">
         <v>730</v>
@@ -18474,7 +18468,7 @@
         <v>691</v>
       </c>
       <c r="G204" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H204" s="14" t="s">
         <v>731</v>
@@ -18483,36 +18477,36 @@
         <v>654</v>
       </c>
       <c r="J204" s="14" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A205" s="12" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="C205" s="6" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D205" s="14" t="s">
+        <v>970</v>
+      </c>
+      <c r="E205" s="14" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F205" s="14" t="s">
+        <v>1503</v>
+      </c>
+      <c r="G205" s="14" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H205" s="14" t="s">
         <v>1504</v>
       </c>
-      <c r="D205" s="14" t="s">
-        <v>971</v>
-      </c>
-      <c r="E205" s="14" t="s">
-        <v>1505</v>
-      </c>
-      <c r="F205" s="14" t="s">
-        <v>1506</v>
-      </c>
-      <c r="G205" s="14" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H205" s="14" t="s">
-        <v>1507</v>
-      </c>
       <c r="I205" s="14" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J205" s="14" t="s">
         <v>743</v>
@@ -18520,7 +18514,7 @@
     </row>
     <row r="206" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A206" s="12" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>145</v>
@@ -18529,7 +18523,7 @@
         <v>146</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>685</v>
@@ -18538,13 +18532,13 @@
         <v>686</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H206" s="2" t="s">
         <v>687</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J206" s="2" t="s">
         <v>743</v>
@@ -18552,28 +18546,28 @@
     </row>
     <row r="207" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A207" s="12" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B207" s="10" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D207" s="14" t="s">
+        <v>971</v>
+      </c>
+      <c r="E207" s="14" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F207" s="14" t="s">
         <v>1409</v>
       </c>
-      <c r="C207" s="6" t="s">
+      <c r="G207" s="14" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H207" s="14" t="s">
         <v>1410</v>
-      </c>
-      <c r="D207" s="14" t="s">
-        <v>972</v>
-      </c>
-      <c r="E207" s="14" t="s">
-        <v>1411</v>
-      </c>
-      <c r="F207" s="14" t="s">
-        <v>1412</v>
-      </c>
-      <c r="G207" s="14" t="s">
-        <v>1383</v>
-      </c>
-      <c r="H207" s="14" t="s">
-        <v>1413</v>
       </c>
       <c r="I207" s="14" t="s">
         <v>635</v>
@@ -18584,7 +18578,7 @@
     </row>
     <row r="208" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A208" s="12" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>124</v>
@@ -18593,7 +18587,7 @@
         <v>125</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>558</v>
@@ -18602,7 +18596,7 @@
         <v>633</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H208" s="2" t="s">
         <v>667</v>
@@ -18616,7 +18610,7 @@
     </row>
     <row r="209" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A209" s="12" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B209" s="13" t="s">
         <v>151</v>
@@ -18625,7 +18619,7 @@
         <v>152</v>
       </c>
       <c r="D209" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E209" s="14" t="s">
         <v>586</v>
@@ -18634,7 +18628,7 @@
         <v>648</v>
       </c>
       <c r="G209" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H209" s="14" t="s">
         <v>693</v>
@@ -18648,28 +18642,28 @@
     </row>
     <row r="210" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A210" s="12" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B210" s="10" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D210" s="14" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E210" s="14" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F210" s="14" t="s">
         <v>1399</v>
-      </c>
-      <c r="C210" s="6" t="s">
-        <v>1400</v>
-      </c>
-      <c r="D210" s="14" t="s">
-        <v>1388</v>
-      </c>
-      <c r="E210" s="14" t="s">
-        <v>1401</v>
-      </c>
-      <c r="F210" s="14" t="s">
-        <v>1402</v>
       </c>
       <c r="G210" s="14" t="s">
         <v>741</v>
       </c>
       <c r="H210" s="14" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="I210" s="14" t="s">
         <v>635</v>
@@ -18680,48 +18674,48 @@
     </row>
     <row r="211" spans="1:10" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A211" s="12" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B211" s="10" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D211" s="14" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E211" s="14" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F211" s="14" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G211" s="14" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H211" s="14" t="s">
         <v>1521</v>
-      </c>
-      <c r="C211" s="6" t="s">
-        <v>1522</v>
-      </c>
-      <c r="D211" s="14" t="s">
-        <v>1388</v>
-      </c>
-      <c r="E211" s="14" t="s">
-        <v>1523</v>
-      </c>
-      <c r="F211" s="14" t="s">
-        <v>1391</v>
-      </c>
-      <c r="G211" s="14" t="s">
-        <v>1351</v>
-      </c>
-      <c r="H211" s="14" t="s">
-        <v>1524</v>
       </c>
       <c r="I211" s="14" t="s">
         <v>654</v>
       </c>
       <c r="J211" s="13" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="212" spans="1:10" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A212" s="12" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>586</v>
@@ -18730,45 +18724,45 @@
         <v>648</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>1327</v>
-      </c>
-      <c r="J212" s="2" t="s">
-        <v>976</v>
+        <v>1325</v>
+      </c>
+      <c r="J212" s="14" t="s">
+        <v>1576</v>
       </c>
     </row>
     <row r="213" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A213" s="12" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B213" s="10" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D213" s="14" t="s">
+        <v>971</v>
+      </c>
+      <c r="E213" s="14" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F213" s="14" t="s">
         <v>1511</v>
       </c>
-      <c r="C213" s="6" t="s">
+      <c r="G213" s="14" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H213" s="13" t="s">
         <v>1512</v>
       </c>
-      <c r="D213" s="14" t="s">
-        <v>972</v>
-      </c>
-      <c r="E213" s="14" t="s">
-        <v>1513</v>
-      </c>
-      <c r="F213" s="14" t="s">
-        <v>1514</v>
-      </c>
-      <c r="G213" s="14" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H213" s="13" t="s">
-        <v>1515</v>
-      </c>
       <c r="I213" s="13" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="J213" s="13" t="s">
         <v>743</v>
@@ -18776,16 +18770,16 @@
     </row>
     <row r="214" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A214" s="12" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>558</v>
@@ -18794,13 +18788,13 @@
         <v>648</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H214" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="I214" s="1" t="s">
         <v>773</v>
-      </c>
-      <c r="I214" s="1" t="s">
-        <v>774</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>743</v>
@@ -18808,63 +18802,63 @@
     </row>
     <row r="215" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A215" s="12" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B215" s="10" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D215" s="14" t="s">
+        <v>989</v>
+      </c>
+      <c r="E215" s="14" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F215" s="14" t="s">
         <v>1420</v>
       </c>
-      <c r="C215" s="6" t="s">
+      <c r="G215" s="14" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H215" s="13" t="s">
         <v>1421</v>
       </c>
-      <c r="D215" s="14" t="s">
-        <v>991</v>
-      </c>
-      <c r="E215" s="14" t="s">
+      <c r="I215" s="14" t="s">
         <v>1422</v>
       </c>
-      <c r="F215" s="14" t="s">
+      <c r="J215" s="13" t="s">
         <v>1423</v>
-      </c>
-      <c r="G215" s="14" t="s">
-        <v>1383</v>
-      </c>
-      <c r="H215" s="13" t="s">
-        <v>1424</v>
-      </c>
-      <c r="I215" s="14" t="s">
-        <v>1425</v>
-      </c>
-      <c r="J215" s="13" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="162" x14ac:dyDescent="0.2">
       <c r="A216" s="12" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B216" s="10" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D216" s="14" t="s">
+        <v>989</v>
+      </c>
+      <c r="E216" s="14" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F216" s="14" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G216" s="14" t="s">
+        <v>759</v>
+      </c>
+      <c r="H216" s="13" t="s">
         <v>1414</v>
       </c>
-      <c r="C216" s="6" t="s">
-        <v>1415</v>
-      </c>
-      <c r="D216" s="14" t="s">
-        <v>991</v>
-      </c>
-      <c r="E216" s="14" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F216" s="14" t="s">
+      <c r="I216" s="14" t="s">
         <v>1416</v>
-      </c>
-      <c r="G216" s="14" t="s">
-        <v>760</v>
-      </c>
-      <c r="H216" s="13" t="s">
-        <v>1417</v>
-      </c>
-      <c r="I216" s="14" t="s">
-        <v>1419</v>
       </c>
       <c r="J216" s="14" t="s">
         <v>745</v>
@@ -18872,7 +18866,7 @@
     </row>
     <row r="217" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A217" s="12" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>113</v>
@@ -18881,7 +18875,7 @@
         <v>114</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>586</v>
@@ -18890,7 +18884,7 @@
         <v>648</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H217" s="2" t="s">
         <v>655</v>
@@ -18904,7 +18898,7 @@
     </row>
     <row r="218" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A218" s="12" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>126</v>
@@ -18913,7 +18907,7 @@
         <v>127</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>586</v>
@@ -18922,7 +18916,7 @@
         <v>648</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H218" s="2" t="s">
         <v>669</v>
@@ -18936,7 +18930,7 @@
     </row>
     <row r="219" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A219" s="12" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>117</v>
@@ -18945,7 +18939,7 @@
         <v>118</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>586</v>
@@ -18954,7 +18948,7 @@
         <v>648</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H219" s="2" t="s">
         <v>659</v>
@@ -18968,31 +18962,31 @@
     </row>
     <row r="220" spans="1:10" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A220" s="12" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B220" s="10" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D220" s="14" t="s">
+        <v>971</v>
+      </c>
+      <c r="E220" s="14" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F220" s="14" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G220" s="14" t="s">
+        <v>759</v>
+      </c>
+      <c r="H220" s="13" t="s">
         <v>1530</v>
       </c>
-      <c r="C220" s="6" t="s">
+      <c r="I220" s="14" t="s">
         <v>1531</v>
-      </c>
-      <c r="D220" s="14" t="s">
-        <v>972</v>
-      </c>
-      <c r="E220" s="14" t="s">
-        <v>1532</v>
-      </c>
-      <c r="F220" s="14" t="s">
-        <v>1391</v>
-      </c>
-      <c r="G220" s="14" t="s">
-        <v>760</v>
-      </c>
-      <c r="H220" s="13" t="s">
-        <v>1533</v>
-      </c>
-      <c r="I220" s="14" t="s">
-        <v>1534</v>
       </c>
       <c r="J220" s="14" t="s">
         <v>745</v>
@@ -19000,31 +18994,31 @@
     </row>
     <row r="221" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A221" s="12" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B221" s="10" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D221" s="14" t="s">
+        <v>970</v>
+      </c>
+      <c r="E221" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F221" s="14" t="s">
         <v>1525</v>
       </c>
-      <c r="C221" s="6" t="s">
+      <c r="G221" s="14" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H221" s="14" t="s">
         <v>1526</v>
       </c>
-      <c r="D221" s="14" t="s">
-        <v>971</v>
-      </c>
-      <c r="E221" s="14" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F221" s="14" t="s">
-        <v>1528</v>
-      </c>
-      <c r="G221" s="14" t="s">
-        <v>1375</v>
-      </c>
-      <c r="H221" s="14" t="s">
-        <v>1529</v>
-      </c>
       <c r="I221" s="14" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J221" s="14" t="s">
         <v>743</v>
@@ -19032,39 +19026,39 @@
     </row>
     <row r="222" spans="1:10" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A222" s="12" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B222" s="10" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D222" s="14" t="s">
+        <v>941</v>
+      </c>
+      <c r="E222" s="14" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F222" s="14" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G222" s="14" t="s">
+        <v>759</v>
+      </c>
+      <c r="H222" s="13" t="s">
         <v>1462</v>
       </c>
-      <c r="C222" s="6" t="s">
+      <c r="I222" s="14" t="s">
         <v>1463</v>
       </c>
-      <c r="D222" s="14" t="s">
-        <v>942</v>
-      </c>
-      <c r="E222" s="14" t="s">
-        <v>1464</v>
-      </c>
-      <c r="F222" s="14" t="s">
-        <v>1391</v>
-      </c>
-      <c r="G222" s="14" t="s">
-        <v>760</v>
-      </c>
-      <c r="H222" s="13" t="s">
-        <v>1465</v>
-      </c>
-      <c r="I222" s="14" t="s">
-        <v>1466</v>
-      </c>
       <c r="J222" s="13" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="243" x14ac:dyDescent="0.2">
       <c r="A223" s="12" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>670</v>
@@ -19073,7 +19067,7 @@
         <v>134</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>586</v>
@@ -19082,30 +19076,30 @@
         <v>648</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H223" s="2" t="s">
         <v>671</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="J223" s="2" t="s">
-        <v>976</v>
+        <v>1341</v>
+      </c>
+      <c r="J223" s="14" t="s">
+        <v>1576</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A224" s="12" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>586</v>
@@ -19114,21 +19108,21 @@
         <v>648</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>1331</v>
-      </c>
-      <c r="J224" s="2" t="s">
-        <v>976</v>
+        <v>1329</v>
+      </c>
+      <c r="J224" s="14" t="s">
+        <v>1576</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A225" s="12" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>234</v>
@@ -19137,7 +19131,7 @@
         <v>235</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>586</v>
@@ -19146,62 +19140,62 @@
         <v>648</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="I225" s="2" t="s">
         <v>654</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A226" s="12" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B226" s="10" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D226" s="14" t="s">
+        <v>941</v>
+      </c>
+      <c r="E226" s="14" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F226" s="14" t="s">
         <v>1516</v>
       </c>
-      <c r="C226" s="6" t="s">
+      <c r="G226" s="14" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H226" s="13" t="s">
         <v>1517</v>
-      </c>
-      <c r="D226" s="14" t="s">
-        <v>942</v>
-      </c>
-      <c r="E226" s="14" t="s">
-        <v>1518</v>
-      </c>
-      <c r="F226" s="14" t="s">
-        <v>1519</v>
-      </c>
-      <c r="G226" s="14" t="s">
-        <v>1363</v>
-      </c>
-      <c r="H226" s="13" t="s">
-        <v>1520</v>
       </c>
       <c r="I226" s="14" t="s">
         <v>635</v>
       </c>
       <c r="J226" s="13" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A227" s="12" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>586</v>
@@ -19210,13 +19204,13 @@
         <v>648</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>743</v>
@@ -19224,7 +19218,7 @@
     </row>
     <row r="228" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A228" s="12" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>240</v>
@@ -19233,7 +19227,7 @@
         <v>241</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>586</v>
@@ -19242,13 +19236,13 @@
         <v>648</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>743</v>
@@ -19256,7 +19250,7 @@
     </row>
     <row r="229" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A229" s="12" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>110</v>
@@ -19265,7 +19259,7 @@
         <v>111</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>586</v>
@@ -19274,7 +19268,7 @@
         <v>648</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H229" s="2" t="s">
         <v>649</v>
@@ -19288,16 +19282,16 @@
     </row>
     <row r="230" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A230" s="12" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>242</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>558</v>
@@ -19306,13 +19300,13 @@
         <v>648</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>743</v>
@@ -19320,7 +19314,7 @@
     </row>
     <row r="231" spans="1:10" ht="283.5" x14ac:dyDescent="0.2">
       <c r="A231" s="12" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B231" s="13" t="s">
         <v>147</v>
@@ -19329,7 +19323,7 @@
         <v>148</v>
       </c>
       <c r="D231" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E231" s="14" t="s">
         <v>688</v>
@@ -19338,7 +19332,7 @@
         <v>689</v>
       </c>
       <c r="G231" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H231" s="14" t="s">
         <v>690</v>
@@ -19352,7 +19346,7 @@
     </row>
     <row r="232" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A232" s="12" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B232" s="13" t="s">
         <v>372</v>
@@ -19361,7 +19355,7 @@
         <v>373</v>
       </c>
       <c r="D232" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E232" s="14" t="s">
         <v>374</v>
@@ -19370,7 +19364,7 @@
         <v>254</v>
       </c>
       <c r="G232" s="13" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H232" s="14" t="s">
         <v>375</v>
@@ -19384,7 +19378,7 @@
     </row>
     <row r="233" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A233" s="12" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B233" s="13" t="s">
         <v>251</v>
@@ -19393,7 +19387,7 @@
         <v>252</v>
       </c>
       <c r="D233" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E233" s="14" t="s">
         <v>253</v>
@@ -19402,7 +19396,7 @@
         <v>254</v>
       </c>
       <c r="G233" s="13" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H233" s="14" t="s">
         <v>255</v>
@@ -19416,7 +19410,7 @@
     </row>
     <row r="234" spans="1:10" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A234" s="12" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B234" s="13" t="s">
         <v>8</v>
@@ -19425,7 +19419,7 @@
         <v>9</v>
       </c>
       <c r="D234" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E234" s="14" t="s">
         <v>435</v>
@@ -19434,7 +19428,7 @@
         <v>436</v>
       </c>
       <c r="G234" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H234" s="14" t="s">
         <v>437</v>
@@ -19448,7 +19442,7 @@
     </row>
     <row r="235" spans="1:10" ht="182.25" x14ac:dyDescent="0.2">
       <c r="A235" s="12" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B235" s="13" t="s">
         <v>35</v>
@@ -19457,7 +19451,7 @@
         <v>36</v>
       </c>
       <c r="D235" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E235" s="14" t="s">
         <v>483</v>
@@ -19466,7 +19460,7 @@
         <v>484</v>
       </c>
       <c r="G235" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H235" s="14" t="s">
         <v>485</v>
@@ -19475,12 +19469,12 @@
         <v>474</v>
       </c>
       <c r="J235" s="14" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="236" spans="1:10" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A236" s="12" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B236" s="13" t="s">
         <v>89</v>
@@ -19489,7 +19483,7 @@
         <v>593</v>
       </c>
       <c r="D236" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E236" s="14" t="s">
         <v>594</v>
@@ -19498,7 +19492,7 @@
         <v>484</v>
       </c>
       <c r="G236" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H236" s="14" t="s">
         <v>595</v>
@@ -19512,16 +19506,16 @@
     </row>
     <row r="237" spans="1:10" ht="182.25" x14ac:dyDescent="0.2">
       <c r="A237" s="12" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B237" s="13" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C237" s="14" t="s">
         <v>63</v>
       </c>
       <c r="D237" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E237" s="14" t="s">
         <v>541</v>
@@ -19530,7 +19524,7 @@
         <v>484</v>
       </c>
       <c r="G237" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H237" s="14" t="s">
         <v>542</v>
@@ -19544,7 +19538,7 @@
     </row>
     <row r="238" spans="1:10" ht="243" x14ac:dyDescent="0.2">
       <c r="A238" s="12" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B238" s="13" t="s">
         <v>94</v>
@@ -19553,7 +19547,7 @@
         <v>95</v>
       </c>
       <c r="D238" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E238" s="14" t="s">
         <v>604</v>
@@ -19562,7 +19556,7 @@
         <v>484</v>
       </c>
       <c r="G238" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H238" s="14" t="s">
         <v>605</v>
@@ -19576,7 +19570,7 @@
     </row>
     <row r="239" spans="1:10" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A239" s="12" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B239" s="13" t="s">
         <v>37</v>
@@ -19585,7 +19579,7 @@
         <v>38</v>
       </c>
       <c r="D239" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E239" s="14" t="s">
         <v>486</v>
@@ -19594,7 +19588,7 @@
         <v>487</v>
       </c>
       <c r="G239" s="14" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="H239" s="14" t="s">
         <v>488</v>
@@ -19608,7 +19602,7 @@
     </row>
     <row r="240" spans="1:10" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A240" s="12" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B240" s="13" t="s">
         <v>93</v>
@@ -19617,7 +19611,7 @@
         <v>601</v>
       </c>
       <c r="D240" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E240" s="14" t="s">
         <v>602</v>
@@ -19626,7 +19620,7 @@
         <v>487</v>
       </c>
       <c r="G240" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H240" s="14" t="s">
         <v>603</v>
@@ -19640,7 +19634,7 @@
     </row>
     <row r="241" spans="1:10" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A241" s="12" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B241" s="13" t="s">
         <v>39</v>
@@ -19649,19 +19643,19 @@
         <v>40</v>
       </c>
       <c r="D241" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E241" s="14" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F241" s="14" t="s">
         <v>489</v>
       </c>
       <c r="G241" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H241" s="14" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I241" s="14" t="s">
         <v>423</v>
@@ -19672,7 +19666,7 @@
     </row>
     <row r="242" spans="1:10" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A242" s="12" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B242" s="13" t="s">
         <v>471</v>
@@ -19681,7 +19675,7 @@
         <v>28</v>
       </c>
       <c r="D242" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E242" s="14" t="s">
         <v>472</v>
@@ -19690,7 +19684,7 @@
         <v>469</v>
       </c>
       <c r="G242" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H242" s="14" t="s">
         <v>473</v>
@@ -19699,12 +19693,12 @@
         <v>474</v>
       </c>
       <c r="J242" s="14" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="243" spans="1:10" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A243" s="12" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B243" s="13" t="s">
         <v>102</v>
@@ -19713,7 +19707,7 @@
         <v>628</v>
       </c>
       <c r="D243" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E243" s="14" t="s">
         <v>629</v>
@@ -19722,7 +19716,7 @@
         <v>469</v>
       </c>
       <c r="G243" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H243" s="14" t="s">
         <v>630</v>
@@ -19736,7 +19730,7 @@
     </row>
     <row r="244" spans="1:10" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A244" s="12" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B244" s="13" t="s">
         <v>31</v>
@@ -19745,7 +19739,7 @@
         <v>32</v>
       </c>
       <c r="D244" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E244" s="14" t="s">
         <v>478</v>
@@ -19754,7 +19748,7 @@
         <v>469</v>
       </c>
       <c r="G244" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H244" s="14" t="s">
         <v>479</v>
@@ -19768,7 +19762,7 @@
     </row>
     <row r="245" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A245" s="12" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B245" s="13" t="s">
         <v>26</v>
@@ -19777,7 +19771,7 @@
         <v>27</v>
       </c>
       <c r="D245" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E245" s="14" t="s">
         <v>468</v>
@@ -19786,7 +19780,7 @@
         <v>469</v>
       </c>
       <c r="G245" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H245" s="14" t="s">
         <v>470</v>
@@ -19800,7 +19794,7 @@
     </row>
     <row r="246" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A246" s="12" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B246" s="13" t="s">
         <v>68</v>
@@ -19809,7 +19803,7 @@
         <v>554</v>
       </c>
       <c r="D246" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E246" s="14" t="s">
         <v>555</v>
@@ -19818,7 +19812,7 @@
         <v>556</v>
       </c>
       <c r="G246" s="14" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H246" s="14" t="s">
         <v>557</v>
@@ -19827,12 +19821,12 @@
         <v>474</v>
       </c>
       <c r="J246" s="14" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="247" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A247" s="12" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B247" s="13" t="s">
         <v>243</v>
@@ -19841,7 +19835,7 @@
         <v>244</v>
       </c>
       <c r="D247" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E247" s="14" t="s">
         <v>245</v>
@@ -19850,7 +19844,7 @@
         <v>246</v>
       </c>
       <c r="G247" s="13" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H247" s="14" t="s">
         <v>247</v>
@@ -19864,28 +19858,28 @@
     </row>
     <row r="248" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A248" s="12" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B248" s="13" t="s">
         <v>231</v>
       </c>
       <c r="C248" s="14" t="s">
+        <v>933</v>
+      </c>
+      <c r="D248" s="14" t="s">
+        <v>971</v>
+      </c>
+      <c r="E248" s="13" t="s">
+        <v>931</v>
+      </c>
+      <c r="F248" s="13" t="s">
+        <v>932</v>
+      </c>
+      <c r="G248" s="14" t="s">
+        <v>972</v>
+      </c>
+      <c r="H248" s="13" t="s">
         <v>934</v>
-      </c>
-      <c r="D248" s="14" t="s">
-        <v>972</v>
-      </c>
-      <c r="E248" s="13" t="s">
-        <v>932</v>
-      </c>
-      <c r="F248" s="13" t="s">
-        <v>933</v>
-      </c>
-      <c r="G248" s="14" t="s">
-        <v>973</v>
-      </c>
-      <c r="H248" s="13" t="s">
-        <v>935</v>
       </c>
       <c r="I248" s="14" t="s">
         <v>190</v>
@@ -19896,31 +19890,31 @@
     </row>
     <row r="249" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A249" s="12" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B249" s="13" t="s">
         <v>220</v>
       </c>
       <c r="C249" s="14" t="s">
+        <v>792</v>
+      </c>
+      <c r="D249" s="14" t="s">
+        <v>970</v>
+      </c>
+      <c r="E249" s="13" t="s">
         <v>793</v>
       </c>
-      <c r="D249" s="14" t="s">
-        <v>971</v>
-      </c>
-      <c r="E249" s="13" t="s">
+      <c r="F249" s="14" t="s">
         <v>794</v>
       </c>
-      <c r="F249" s="14" t="s">
+      <c r="G249" s="14" t="s">
+        <v>972</v>
+      </c>
+      <c r="H249" s="13" t="s">
         <v>795</v>
       </c>
-      <c r="G249" s="14" t="s">
-        <v>973</v>
-      </c>
-      <c r="H249" s="13" t="s">
-        <v>796</v>
-      </c>
       <c r="I249" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J249" s="13" t="s">
         <v>743</v>
@@ -19928,31 +19922,31 @@
     </row>
     <row r="250" spans="1:10" ht="81" x14ac:dyDescent="0.2">
       <c r="A250" s="12" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B250" s="13" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C250" s="14" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D250" s="14" t="s">
+        <v>970</v>
+      </c>
+      <c r="E250" s="13" t="s">
         <v>1298</v>
       </c>
-      <c r="C250" s="14" t="s">
+      <c r="F250" s="13" t="s">
         <v>1299</v>
       </c>
-      <c r="D250" s="14" t="s">
-        <v>971</v>
-      </c>
-      <c r="E250" s="13" t="s">
-        <v>1300</v>
-      </c>
-      <c r="F250" s="13" t="s">
-        <v>1301</v>
-      </c>
       <c r="G250" s="13" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H250" s="13" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I250" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J250" s="13" t="s">
         <v>743</v>
@@ -19960,7 +19954,7 @@
     </row>
     <row r="251" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A251" s="12" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B251" s="13" t="s">
         <v>384</v>
@@ -19969,13 +19963,13 @@
         <v>385</v>
       </c>
       <c r="D251" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E251" s="14" t="s">
         <v>386</v>
       </c>
       <c r="F251" s="14" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="G251" s="14" t="s">
         <v>742</v>
@@ -19992,7 +19986,7 @@
     </row>
     <row r="252" spans="1:10" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A252" s="12" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B252" s="13" t="s">
         <v>277</v>
@@ -20001,30 +19995,30 @@
         <v>278</v>
       </c>
       <c r="D252" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E252" s="14" t="s">
         <v>279</v>
       </c>
       <c r="F252" s="14" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="G252" s="14" t="s">
         <v>742</v>
       </c>
       <c r="H252" s="14" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="I252" s="14" t="s">
-        <v>1311</v>
-      </c>
-      <c r="J252" s="13" t="s">
-        <v>976</v>
+        <v>1309</v>
+      </c>
+      <c r="J252" s="14" t="s">
+        <v>1576</v>
       </c>
     </row>
     <row r="253" spans="1:10" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A253" s="12" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B253" s="13" t="s">
         <v>399</v>
@@ -20033,19 +20027,19 @@
         <v>400</v>
       </c>
       <c r="D253" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E253" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="F253" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="G253" s="14" t="s">
         <v>872</v>
       </c>
-      <c r="F253" s="14" t="s">
-        <v>871</v>
-      </c>
-      <c r="G253" s="14" t="s">
-        <v>873</v>
-      </c>
       <c r="H253" s="14" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I253" s="14" t="s">
         <v>133</v>
@@ -20056,7 +20050,7 @@
     </row>
     <row r="254" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A254" s="12" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B254" s="13" t="s">
         <v>212</v>
@@ -20065,22 +20059,22 @@
         <v>213</v>
       </c>
       <c r="D254" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E254" s="13" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F254" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="G254" s="14" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H254" s="13" t="s">
         <v>785</v>
       </c>
-      <c r="G254" s="14" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H254" s="13" t="s">
-        <v>786</v>
-      </c>
       <c r="I254" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J254" s="13" t="s">
         <v>743</v>
@@ -20088,7 +20082,7 @@
     </row>
     <row r="255" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A255" s="12" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B255" s="13" t="s">
         <v>214</v>
@@ -20097,22 +20091,22 @@
         <v>215</v>
       </c>
       <c r="D255" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E255" s="13" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F255" s="13" t="s">
+        <v>786</v>
+      </c>
+      <c r="G255" s="14" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H255" s="13" t="s">
         <v>787</v>
       </c>
-      <c r="G255" s="14" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H255" s="13" t="s">
-        <v>788</v>
-      </c>
       <c r="I255" s="13" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J255" s="13" t="s">
         <v>743</v>
@@ -20120,7 +20114,7 @@
     </row>
     <row r="256" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A256" s="12" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B256" s="13" t="s">
         <v>69</v>
@@ -20129,13 +20123,13 @@
         <v>559</v>
       </c>
       <c r="D256" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E256" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="F256" s="14" t="s">
         <v>765</v>
-      </c>
-      <c r="F256" s="14" t="s">
-        <v>766</v>
       </c>
       <c r="G256" s="14" t="s">
         <v>741</v>
@@ -20152,7 +20146,7 @@
     </row>
     <row r="257" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A257" s="12" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B257" s="13" t="s">
         <v>70</v>
@@ -20161,7 +20155,7 @@
         <v>561</v>
       </c>
       <c r="D257" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E257" s="14" t="s">
         <v>562</v>
@@ -20184,7 +20178,7 @@
     </row>
     <row r="258" spans="1:10" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A258" s="12" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B258" s="13" t="s">
         <v>261</v>
@@ -20193,7 +20187,7 @@
         <v>262</v>
       </c>
       <c r="D258" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E258" s="14" t="s">
         <v>263</v>
@@ -20202,7 +20196,7 @@
         <v>264</v>
       </c>
       <c r="G258" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H258" s="14" t="s">
         <v>265</v>
@@ -20216,7 +20210,7 @@
     </row>
     <row r="259" spans="1:10" ht="243" x14ac:dyDescent="0.2">
       <c r="A259" s="12" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B259" s="13" t="s">
         <v>395</v>
@@ -20225,7 +20219,7 @@
         <v>396</v>
       </c>
       <c r="D259" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E259" s="14" t="s">
         <v>397</v>
@@ -20234,10 +20228,10 @@
         <v>398</v>
       </c>
       <c r="G259" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H259" s="14" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I259" s="14" t="s">
         <v>133</v>
@@ -20248,7 +20242,7 @@
     </row>
     <row r="260" spans="1:10" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A260" s="12" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B260" s="13" t="s">
         <v>401</v>
@@ -20257,7 +20251,7 @@
         <v>402</v>
       </c>
       <c r="D260" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E260" s="14" t="s">
         <v>403</v>
@@ -20266,45 +20260,45 @@
         <v>398</v>
       </c>
       <c r="G260" s="13" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H260" s="14" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I260" s="14" t="s">
         <v>654</v>
       </c>
       <c r="J260" s="13" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="261" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A261" s="12" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B261" s="13" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C261" s="14" t="s">
+        <v>880</v>
+      </c>
+      <c r="D261" s="13" t="s">
+        <v>970</v>
+      </c>
+      <c r="E261" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="F261" s="14" t="s">
+        <v>879</v>
+      </c>
+      <c r="G261" s="14" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H261" s="13" t="s">
         <v>881</v>
       </c>
-      <c r="D261" s="13" t="s">
-        <v>971</v>
-      </c>
-      <c r="E261" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="F261" s="14" t="s">
-        <v>880</v>
-      </c>
-      <c r="G261" s="14" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H261" s="13" t="s">
+      <c r="I261" s="13" t="s">
         <v>882</v>
-      </c>
-      <c r="I261" s="13" t="s">
-        <v>883</v>
       </c>
       <c r="J261" s="14" t="s">
         <v>743</v>
@@ -20312,31 +20306,31 @@
     </row>
     <row r="262" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A262" s="12" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B262" s="13" t="s">
+        <v>805</v>
+      </c>
+      <c r="C262" s="14" t="s">
         <v>806</v>
       </c>
-      <c r="C262" s="14" t="s">
-        <v>807</v>
-      </c>
       <c r="D262" s="13" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E262" s="13" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F262" s="14" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G262" s="14" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="H262" s="13" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I262" s="13" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J262" s="14" t="s">
         <v>743</v>
@@ -20344,31 +20338,31 @@
     </row>
     <row r="263" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A263" s="12" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B263" s="13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C263" s="14" t="s">
+        <v>885</v>
+      </c>
+      <c r="D263" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="E263" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="F263" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="G263" s="14" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H263" s="13" t="s">
         <v>886</v>
       </c>
-      <c r="D263" s="13" t="s">
-        <v>972</v>
-      </c>
-      <c r="E263" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="F263" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="G263" s="14" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H263" s="13" t="s">
-        <v>887</v>
-      </c>
       <c r="I263" s="13" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J263" s="14" t="s">
         <v>743</v>
@@ -20376,31 +20370,31 @@
     </row>
     <row r="264" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A264" s="12" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B264" s="13" t="s">
         <v>225</v>
       </c>
       <c r="C264" s="14" t="s">
+        <v>926</v>
+      </c>
+      <c r="D264" s="14" t="s">
+        <v>941</v>
+      </c>
+      <c r="E264" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="F264" s="14" t="s">
+        <v>925</v>
+      </c>
+      <c r="G264" s="14" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H264" s="13" t="s">
         <v>927</v>
       </c>
-      <c r="D264" s="14" t="s">
-        <v>942</v>
-      </c>
-      <c r="E264" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="F264" s="14" t="s">
-        <v>926</v>
-      </c>
-      <c r="G264" s="14" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H264" s="13" t="s">
-        <v>928</v>
-      </c>
       <c r="I264" s="13" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J264" s="14" t="s">
         <v>745</v>
@@ -20408,31 +20402,31 @@
     </row>
     <row r="265" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A265" s="12" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C265" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G265" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="H265" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="D265" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="F265" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G265" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="H265" s="1" t="s">
+      <c r="I265" s="1" t="s">
         <v>937</v>
-      </c>
-      <c r="I265" s="1" t="s">
-        <v>938</v>
       </c>
       <c r="J265" s="2" t="s">
         <v>743</v>
@@ -20440,31 +20434,31 @@
     </row>
     <row r="266" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A266" s="12" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C266" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G266" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="H266" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="D266" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="F266" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G266" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="H266" s="1" t="s">
-        <v>917</v>
-      </c>
       <c r="I266" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J266" s="2" t="s">
         <v>743</v>
@@ -20472,31 +20466,31 @@
     </row>
     <row r="267" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A267" s="12" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="D267" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E267" s="13" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F267" s="14" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G267" s="14" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="H267" s="13" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="I267" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J267" s="14" t="s">
         <v>743</v>
@@ -20504,31 +20498,31 @@
     </row>
     <row r="268" spans="1:10" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A268" s="12" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B268" s="13" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C268" s="14" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D268" s="13" t="s">
+        <v>989</v>
+      </c>
+      <c r="E268" s="13" t="s">
         <v>1313</v>
       </c>
-      <c r="C268" s="14" t="s">
+      <c r="F268" s="14" t="s">
         <v>1314</v>
       </c>
-      <c r="D268" s="13" t="s">
-        <v>991</v>
-      </c>
-      <c r="E268" s="13" t="s">
+      <c r="G268" s="14" t="s">
+        <v>747</v>
+      </c>
+      <c r="H268" s="13" t="s">
         <v>1315</v>
       </c>
-      <c r="F268" s="14" t="s">
+      <c r="I268" s="13" t="s">
         <v>1316</v>
-      </c>
-      <c r="G268" s="14" t="s">
-        <v>748</v>
-      </c>
-      <c r="H268" s="13" t="s">
-        <v>1317</v>
-      </c>
-      <c r="I268" s="13" t="s">
-        <v>1318</v>
       </c>
       <c r="J268" s="14" t="s">
         <v>743</v>
@@ -20536,63 +20530,63 @@
     </row>
     <row r="269" spans="1:10" ht="283.5" x14ac:dyDescent="0.2">
       <c r="A269" s="12" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B269" s="13" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C269" s="14" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D269" s="13" t="s">
+        <v>941</v>
+      </c>
+      <c r="E269" s="13" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F269" s="14" t="s">
         <v>1542</v>
       </c>
-      <c r="C269" s="14" t="s">
-        <v>1543</v>
-      </c>
-      <c r="D269" s="13" t="s">
-        <v>942</v>
-      </c>
-      <c r="E269" s="13" t="s">
+      <c r="G269" s="14" t="s">
+        <v>972</v>
+      </c>
+      <c r="H269" s="13" t="s">
         <v>1544</v>
       </c>
-      <c r="F269" s="14" t="s">
-        <v>1545</v>
-      </c>
-      <c r="G269" s="14" t="s">
-        <v>973</v>
-      </c>
-      <c r="H269" s="13" t="s">
-        <v>1547</v>
-      </c>
       <c r="I269" s="13" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="J269" s="14" t="s">
-        <v>1548</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="270" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A270" s="12" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B270" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C270" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="C270" s="2" t="s">
-        <v>840</v>
-      </c>
       <c r="D270" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E270" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="F270" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="F270" s="2" t="s">
+      <c r="G270" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="H270" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="G270" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="H270" s="1" t="s">
-        <v>921</v>
-      </c>
       <c r="I270" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J270" s="2" t="s">
         <v>743</v>
@@ -20600,31 +20594,31 @@
     </row>
     <row r="271" spans="1:10" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A271" s="12" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B271" s="10" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D271" s="13" t="s">
+        <v>941</v>
+      </c>
+      <c r="E271" s="14" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F271" s="14" t="s">
         <v>1482</v>
       </c>
-      <c r="C271" s="6" t="s">
+      <c r="G271" s="14" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H271" s="13" t="s">
         <v>1483</v>
       </c>
-      <c r="D271" s="13" t="s">
-        <v>942</v>
-      </c>
-      <c r="E271" s="14" t="s">
-        <v>1484</v>
-      </c>
-      <c r="F271" s="14" t="s">
-        <v>1485</v>
-      </c>
-      <c r="G271" s="14" t="s">
-        <v>1363</v>
-      </c>
-      <c r="H271" s="13" t="s">
-        <v>1486</v>
-      </c>
       <c r="I271" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J271" s="14" t="s">
         <v>743</v>
@@ -20632,7 +20626,7 @@
     </row>
     <row r="272" spans="1:10" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A272" s="12" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B272" s="13" t="s">
         <v>615</v>
@@ -20641,13 +20635,13 @@
         <v>616</v>
       </c>
       <c r="D272" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E272" s="14" t="s">
         <v>617</v>
       </c>
       <c r="F272" s="14" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="G272" s="14" t="s">
         <v>740</v>
@@ -20656,7 +20650,7 @@
         <v>618</v>
       </c>
       <c r="I272" s="14" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J272" s="14" t="s">
         <v>743</v>
@@ -20961,7 +20955,7 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" sqref="B271 B233 B235:B264" xr:uid="{D5E8AF2E-826D-4E3A-BBC4-F7EF8157573D}">
       <formula1>"Sheet2!A1:A5"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="J172:J1048576 J1:J170" xr:uid="{A9E55B22-38B8-43AF-A6CA-86995F20B914}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="J1:J170 J172:J1048576" xr:uid="{A9E55B22-38B8-43AF-A6CA-86995F20B914}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20987,32 +20981,32 @@
   <sheetData>
     <row r="9" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D9" s="7" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="10" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D10" s="7" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="E10" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="F10" t="s">
+        <v>970</v>
+      </c>
+      <c r="G10" t="s">
         <v>971</v>
       </c>
-      <c r="G10" t="s">
-        <v>972</v>
-      </c>
       <c r="H10" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="11" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D11" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E11" s="9">
         <v>0.12698412698412698</v>
@@ -21029,7 +21023,7 @@
     </row>
     <row r="12" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D12" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E12" s="9">
         <v>0</v>
@@ -21046,7 +21040,7 @@
     </row>
     <row r="13" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D13" s="8" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E13" s="9">
         <v>0</v>
@@ -21080,7 +21074,7 @@
     </row>
     <row r="15" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D15" s="8" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E15" s="9">
         <v>0.22222222222222221</v>
@@ -21097,7 +21091,7 @@
     </row>
     <row r="16" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D16" s="8" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E16" s="9">
         <v>1.5873015873015872E-2</v>
@@ -21131,7 +21125,7 @@
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D18" s="8" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="E18" s="9">
         <v>0.15873015873015872</v>
@@ -21148,7 +21142,7 @@
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D19" s="8" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="E19" s="9">
         <v>1</v>
